--- a/first assignment/result_kruskal_union_find.xlsx
+++ b/first assignment/result_kruskal_union_find.xlsx
@@ -1,30 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davide/Sviluppo/Advanced Algorithm/first assignment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Desktop\Advanced Algorithm\AdvancedAlgorithms-assignments\first assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0795B937-8DF2-1346-B27F-9FAC3EAAC5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A187A9A-9D06-4E0F-8833-148EC5CB0E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="760" windowWidth="29200" windowHeight="18880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result_kruskal_union_find" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">result_kruskal_union_find!$H$7</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">result_kruskal_union_find!$H$8:$H$24</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">result_kruskal_union_find!$I$7</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">result_kruskal_union_find!$I$8:$I$24</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">result_kruskal_union_find!$H$7</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">result_kruskal_union_find!$H$8:$H$24</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">result_kruskal_union_find!$I$7</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">result_kruskal_union_find!$I$8:$I$24</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -42,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
     <t>file</t>
   </si>
@@ -267,12 +257,27 @@
   </si>
   <si>
     <t>Time (ms)</t>
+  </si>
+  <si>
+    <t>m*log(n)</t>
+  </si>
+  <si>
+    <t>constant</t>
+  </si>
+  <si>
+    <t>choosen const</t>
+  </si>
+  <si>
+    <t>m*log(n)*const</t>
+  </si>
+  <si>
+    <t>Media I</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -825,6 +830,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>KRUSKAL UNION FIND</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -864,15 +894,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>result_kruskal_union_find!$I$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Time (ms)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Measured Time (ms)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -900,7 +922,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>result_kruskal_union_find!$H$8:$H$24</c:f>
+              <c:f>result_kruskal_union_find!$U$2:$U$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -960,7 +982,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>result_kruskal_union_find!$I$8:$I$24</c:f>
+              <c:f>result_kruskal_union_find!$V$2:$V$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1022,6 +1044,163 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-461D-3A44-A5DC-93030F8C1B30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>0,00017*m*log(n)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>result_kruskal_union_find!$J$2:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>result_kruskal_union_find!$K$2:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.8275000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6399650312033596E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4162210323339187E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4374562890041982E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5390000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.104834926602451</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23466678031791233</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52387710360263129</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67383750000000009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4986181025815126</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.273471073769048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.0987253983916636</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.0506300000000017</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.528955726212182</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41.742686017440853</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>88.913602184384345</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>113.38915000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7C1D-49A6-89A2-3B5E06E3818C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1058,6 +1237,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Number of vertices</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1076,7 +1310,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1102,7 +1336,6 @@
       <c:valAx>
         <c:axId val="1204926544"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1121,6 +1354,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1170,6 +1458,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1768,15 +2087,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>185854</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>709729</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2100,21 +2419,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2130,8 +2452,32 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2147,8 +2493,37 @@
       <c r="E2">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <f>LOG10(B2)*C2</f>
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <f>E2/F2</f>
+        <v>1.1111111111111111E-3</v>
+      </c>
+      <c r="H2">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I2">
+        <f>F2*H2</f>
+        <v>1.5300000000000001E-3</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <f>AVERAGEIF(B:B,J2,I:I)</f>
+        <v>1.8275000000000001E-3</v>
+      </c>
+      <c r="U2">
+        <v>10</v>
+      </c>
+      <c r="V2">
+        <f>AVERAGEIF(B:B,U2,E:E)</f>
+        <v>1.8000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2164,8 +2539,37 @@
       <c r="E3">
         <v>2.1000000000000001E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">LOG10(B3)*C3</f>
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="1">E3/F3</f>
+        <v>1.9090909090909091E-3</v>
+      </c>
+      <c r="H3">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="2">F3*H3</f>
+        <v>1.8700000000000001E-3</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <f>AVERAGEIF(B:B,J3,I:I)</f>
+        <v>5.6399650312033596E-3</v>
+      </c>
+      <c r="U3">
+        <v>20</v>
+      </c>
+      <c r="V3">
+        <f>AVERAGEIF(B:B,U3,E:E)</f>
+        <v>1.4477500000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2181,8 +2585,37 @@
       <c r="E4">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>1.9230769230769232E-3</v>
+      </c>
+      <c r="H4">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>2.2100000000000002E-3</v>
+      </c>
+      <c r="J4">
+        <v>40</v>
+      </c>
+      <c r="K4">
+        <f>AVERAGEIF(B:B,J4,I:I)</f>
+        <v>1.4162210323339187E-2</v>
+      </c>
+      <c r="U4">
+        <v>40</v>
+      </c>
+      <c r="V4">
+        <f>AVERAGEIF(B:B,U4,E:E)</f>
+        <v>2.7499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2198,8 +2631,37 @@
       <c r="E5">
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="H5">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="J5">
+        <v>80</v>
+      </c>
+      <c r="K5">
+        <f>AVERAGEIF(B:B,J5,I:I)</f>
+        <v>3.4374562890041982E-2</v>
+      </c>
+      <c r="U5">
+        <v>80</v>
+      </c>
+      <c r="V5">
+        <f>AVERAGEIF(B:B,U5,E:E)</f>
+        <v>6.275E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2215,8 +2677,37 @@
       <c r="E6">
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>31.22471989593555</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>5.4444043234517061E-4</v>
+      </c>
+      <c r="H6">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>5.3082023823090435E-3</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <f>AVERAGEIF(B:B,J6,I:I)</f>
+        <v>4.5390000000000007E-2</v>
+      </c>
+      <c r="U6">
+        <v>100</v>
+      </c>
+      <c r="V6">
+        <f>AVERAGEIF(B:B,U6,E:E)</f>
+        <v>6.7250000000000004E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2232,14 +2723,37 @@
       <c r="E7">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="H7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>31.22471989593555</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>3.5228498563511033E-4</v>
+      </c>
+      <c r="H7">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>5.3082023823090435E-3</v>
+      </c>
+      <c r="J7">
+        <v>200</v>
+      </c>
+      <c r="K7">
+        <f>AVERAGEIF(B:B,J7,I:I)</f>
+        <v>0.104834926602451</v>
+      </c>
+      <c r="U7">
+        <v>200</v>
+      </c>
+      <c r="V7">
+        <f>AVERAGEIF(B:B,U7,E:E)</f>
+        <v>0.14725000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2255,15 +2769,37 @@
       <c r="E8">
         <v>5.7460000000000004</v>
       </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>36.428839878591475</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.15773217097085801</v>
+      </c>
       <c r="H8">
-        <v>10</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="I8">
-        <f>AVERAGEIF(B:B,H8,E:E)</f>
-        <v>1.8000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>6.1929027793605511E-3</v>
+      </c>
+      <c r="J8">
+        <v>400</v>
+      </c>
+      <c r="K8">
+        <f>AVERAGEIF(B:B,J8,I:I)</f>
+        <v>0.23466678031791233</v>
+      </c>
+      <c r="U8">
+        <v>400</v>
+      </c>
+      <c r="V8">
+        <f>AVERAGEIF(B:B,U8,E:E)</f>
+        <v>0.24875000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2279,15 +2815,37 @@
       <c r="E9">
         <v>1.7000000000000001E-2</v>
       </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>33.826779887263513</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>5.0256039908784978E-4</v>
+      </c>
       <c r="H9">
-        <v>20</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="I9">
-        <f t="shared" ref="I9:I24" si="0">AVERAGEIF(B:B,H9,E:E)</f>
-        <v>1.4477500000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>5.7505525808347977E-3</v>
+      </c>
+      <c r="J9">
+        <v>800</v>
+      </c>
+      <c r="K9">
+        <f>AVERAGEIF(B:B,J9,I:I)</f>
+        <v>0.52387710360263129</v>
+      </c>
+      <c r="U9">
+        <v>800</v>
+      </c>
+      <c r="V9">
+        <f>AVERAGEIF(B:B,U9,E:E)</f>
+        <v>0.53500000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2303,15 +2861,37 @@
       <c r="E10">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>89.715359514365886</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>2.7865908508115398E-4</v>
+      </c>
       <c r="H10">
-        <v>40</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
-        <v>2.7499999999999997E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.5251611117442202E-2</v>
+      </c>
+      <c r="J10">
+        <v>1000</v>
+      </c>
+      <c r="K10">
+        <f>AVERAGEIF(B:B,J10,I:I)</f>
+        <v>0.67383750000000009</v>
+      </c>
+      <c r="U10">
+        <v>1000</v>
+      </c>
+      <c r="V10">
+        <f>AVERAGEIF(B:B,U10,E:E)</f>
+        <v>0.77649999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2327,15 +2907,37 @@
       <c r="E11">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>80.102999566398111</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>3.120981752908925E-4</v>
+      </c>
       <c r="H11">
-        <v>80</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
-        <v>6.275E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.361750992628768E-2</v>
+      </c>
+      <c r="J11">
+        <v>2000</v>
+      </c>
+      <c r="K11">
+        <f>AVERAGEIF(B:B,J11,I:I)</f>
+        <v>1.4986181025815126</v>
+      </c>
+      <c r="U11">
+        <v>2000</v>
+      </c>
+      <c r="V11">
+        <f>AVERAGEIF(B:B,U11,E:E)</f>
+        <v>1.2362500000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2351,15 +2953,37 @@
       <c r="E12">
         <v>3.5999999999999997E-2</v>
       </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>80.102999566398111</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>4.494213724188851E-4</v>
+      </c>
       <c r="H12">
-        <v>100</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
-        <v>6.7250000000000004E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.361750992628768E-2</v>
+      </c>
+      <c r="J12">
+        <v>4000</v>
+      </c>
+      <c r="K12">
+        <f>AVERAGEIF(B:B,J12,I:I)</f>
+        <v>3.273471073769048</v>
+      </c>
+      <c r="U12">
+        <v>4000</v>
+      </c>
+      <c r="V12">
+        <f>AVERAGEIF(B:B,U12,E:E)</f>
+        <v>3.1150000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2375,15 +2999,37 @@
       <c r="E13">
         <v>2.4E-2</v>
       </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>83.307119549054036</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>2.8809062334543919E-4</v>
+      </c>
       <c r="H13">
-        <v>200</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
-        <v>0.14725000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.4162210323339187E-2</v>
+      </c>
+      <c r="J13">
+        <v>8000</v>
+      </c>
+      <c r="K13">
+        <f>AVERAGEIF(B:B,J13,I:I)</f>
+        <v>7.0987253983916636</v>
+      </c>
+      <c r="U13">
+        <v>8000</v>
+      </c>
+      <c r="V13">
+        <f>AVERAGEIF(B:B,U13,E:E)</f>
+        <v>7.1852499999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2399,15 +3045,37 @@
       <c r="E14">
         <v>5.8999999999999997E-2</v>
       </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>205.5337185951299</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>2.8705752225609759E-4</v>
+      </c>
       <c r="H14">
-        <v>400</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
-        <v>0.24875000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>3.4940732161172085E-2</v>
+      </c>
+      <c r="J14">
+        <v>10000</v>
+      </c>
+      <c r="K14">
+        <f>AVERAGEIF(B:B,J14,I:I)</f>
+        <v>9.0506300000000017</v>
+      </c>
+      <c r="U14">
+        <v>10000</v>
+      </c>
+      <c r="V14">
+        <f>AVERAGEIF(B:B,U14,E:E)</f>
+        <v>10.257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -2423,15 +3091,37 @@
       <c r="E15">
         <v>4.4999999999999998E-2</v>
       </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>188.4059087122024</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>2.3884601235484238E-4</v>
+      </c>
       <c r="H15">
-        <v>800</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
-        <v>0.53500000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>3.2029004481074409E-2</v>
+      </c>
+      <c r="J15">
+        <v>20000</v>
+      </c>
+      <c r="K15">
+        <f>AVERAGEIF(B:B,J15,I:I)</f>
+        <v>19.528955726212182</v>
+      </c>
+      <c r="U15">
+        <v>20000</v>
+      </c>
+      <c r="V15">
+        <f>AVERAGEIF(B:B,U15,E:E)</f>
+        <v>18.333749999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2447,15 +3137,37 @@
       <c r="E16">
         <v>8.3000000000000004E-2</v>
       </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>197.92135864716212</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>4.1935847938455982E-4</v>
+      </c>
       <c r="H16">
-        <v>1000</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
-        <v>0.77649999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>3.3646630970017563E-2</v>
+      </c>
+      <c r="J16">
+        <v>40000</v>
+      </c>
+      <c r="K16">
+        <f>AVERAGEIF(B:B,J16,I:I)</f>
+        <v>41.742686017440853</v>
+      </c>
+      <c r="U16">
+        <v>40000</v>
+      </c>
+      <c r="V16">
+        <f>AVERAGEIF(B:B,U16,E:E)</f>
+        <v>32.538249999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -2471,15 +3183,37 @@
       <c r="E17">
         <v>6.4000000000000001E-2</v>
       </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>216.95225851708156</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>2.9499577666282286E-4</v>
+      </c>
       <c r="H17">
-        <v>2000</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
-        <v>1.2362500000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>3.6881883947903871E-2</v>
+      </c>
+      <c r="J17">
+        <v>80000</v>
+      </c>
+      <c r="K17">
+        <f>AVERAGEIF(B:B,J17,I:I)</f>
+        <v>88.913602184384345</v>
+      </c>
+      <c r="U17">
+        <v>80000</v>
+      </c>
+      <c r="V17">
+        <f>AVERAGEIF(B:B,U17,E:E)</f>
+        <v>96.396249999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2495,15 +3229,37 @@
       <c r="E18">
         <v>7.1999999999999995E-2</v>
       </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>272</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>2.6470588235294115E-4</v>
+      </c>
       <c r="H18">
-        <v>4000</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
-        <v>3.1150000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4.6240000000000003E-2</v>
+      </c>
+      <c r="J18">
+        <v>100000</v>
+      </c>
+      <c r="K18">
+        <f>AVERAGEIF(B:B,J18,I:I)</f>
+        <v>113.38915000000001</v>
+      </c>
+      <c r="U18">
+        <v>100000</v>
+      </c>
+      <c r="V18">
+        <f>AVERAGEIF(B:B,U18,E:E)</f>
+        <v>110.66375000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2519,15 +3275,23 @@
       <c r="E19">
         <v>5.0999999999999997E-2</v>
       </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>258</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>1.9767441860465114E-4</v>
+      </c>
       <c r="H19">
-        <v>8000</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="I19">
-        <f t="shared" si="0"/>
-        <v>7.1852499999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4.3860000000000003E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2543,15 +3307,23 @@
       <c r="E20">
         <v>8.8999999999999996E-2</v>
       </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>274</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>3.2481751824817515E-4</v>
+      </c>
       <c r="H20">
-        <v>10000</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="I20">
-        <f t="shared" si="0"/>
-        <v>10.257</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4.6580000000000003E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2567,15 +3339,23 @@
       <c r="E21">
         <v>5.7000000000000002E-2</v>
       </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>264</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>2.1590909090909091E-4</v>
+      </c>
       <c r="H21">
-        <v>20000</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="I21">
-        <f t="shared" si="0"/>
-        <v>18.333749999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4.4880000000000003E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2591,15 +3371,23 @@
       <c r="E22">
         <v>0.13900000000000001</v>
       </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>614.37500884228302</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>2.2624618189129967E-4</v>
+      </c>
       <c r="H22">
-        <v>40000</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="I22">
-        <f t="shared" si="0"/>
-        <v>32.538249999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>0.10444375150318812</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2615,15 +3403,23 @@
       <c r="E23">
         <v>0.13900000000000001</v>
       </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>618.97706883361093</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>2.2456405414489599E-4</v>
+      </c>
       <c r="H23">
-        <v>80000</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="I23">
-        <f t="shared" si="0"/>
-        <v>96.396249999999995</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>0.10522610170171387</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2639,15 +3435,23 @@
       <c r="E24">
         <v>0.19500000000000001</v>
       </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>618.97706883361093</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>3.1503590329679649E-4</v>
+      </c>
       <c r="H24">
-        <v>100000</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="I24">
-        <f t="shared" si="0"/>
-        <v>110.66375000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>0.10522610170171387</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2663,8 +3467,23 @@
       <c r="E25">
         <v>0.11600000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>614.37500884228302</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>1.8880976330496951E-4</v>
+      </c>
+      <c r="H25">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>0.10444375150318812</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -2680,8 +3499,23 @@
       <c r="E26">
         <v>0.27800000000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>1405.1123953170998</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>1.9784894142739533E-4</v>
+      </c>
+      <c r="H26">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>0.23886910720390697</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -2697,8 +3531,23 @@
       <c r="E27">
         <v>0.27100000000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>1347.8670755078847</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>2.0105840176998577E-4</v>
+      </c>
+      <c r="H27">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>0.2291374028363404</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -2714,8 +3563,23 @@
       <c r="E28">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>1399.9082753344437</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>1.4286650313015631E-4</v>
+      </c>
+      <c r="H28">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>0.23798440680685545</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -2731,8 +3595,23 @@
       <c r="E29">
         <v>0.246</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>1368.6835554385084</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>1.7973475243602586E-4</v>
+      </c>
+      <c r="H29">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>0.23267620442454645</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -2748,8 +3627,23 @@
       <c r="E30">
         <v>0.58799999999999997</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>3085.9846561724362</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>1.9053886052994819E-4</v>
+      </c>
+      <c r="H30">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>0.52461739154931419</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -2765,8 +3659,23 @@
       <c r="E31">
         <v>0.48799999999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>3071.4692062374766</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>1.5888161893629914E-4</v>
+      </c>
+      <c r="H31">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>0.52214976506037103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2782,8 +3691,23 @@
       <c r="E32">
         <v>0.56399999999999995</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>3123.7248260033316</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>1.8055367595282493E-4</v>
+      </c>
+      <c r="H32">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>0.53103322042056644</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -2799,8 +3723,23 @@
       <c r="E33">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>3045.341396354549</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>1.6418520452207071E-4</v>
+      </c>
+      <c r="H33">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>0.51770803738027338</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -2816,8 +3755,23 @@
       <c r="E34">
         <v>0.72299999999999998</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>3900</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>1.8538461538461539E-4</v>
+      </c>
+      <c r="H34">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>0.66300000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -2833,8 +3787,23 @@
       <c r="E35">
         <v>0.78700000000000003</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>3939</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>1.997969027671998E-4</v>
+      </c>
+      <c r="H35">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>0.66963000000000006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -2850,8 +3819,23 @@
       <c r="E36">
         <v>0.98299999999999998</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>3984</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>2.4673694779116467E-4</v>
+      </c>
+      <c r="H36">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>0.6772800000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -2867,8 +3851,23 @@
       <c r="E37">
         <v>0.61299999999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>4032</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>1.5203373015873015E-4</v>
+      </c>
+      <c r="H37">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>0.68544000000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -2884,8 +3883,23 @@
       <c r="E38">
         <v>1.446</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>8909.4799582970845</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>1.6229903504675277E-4</v>
+      </c>
+      <c r="H38">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>1.5146115929105044</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -2901,8 +3915,23 @@
       <c r="E39">
         <v>1.2490000000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>8760.933608492207</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>1.4256471465430478E-4</v>
+      </c>
+      <c r="H39">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>1.4893587134436752</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -2918,8 +3947,23 @@
       <c r="E40">
         <v>1.141</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>8754.3315485008789</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>1.3033547949133691E-4</v>
+      </c>
+      <c r="H40">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>1.4882363632451494</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -2935,8 +3979,23 @@
       <c r="E41">
         <v>1.109</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>8836.8572983924787</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>1.2549710406682015E-4</v>
+      </c>
+      <c r="H41">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>1.5022657407267215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -2952,8 +4011,23 @@
       <c r="E42">
         <v>3.2949999999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>19307.04155351788</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>1.7066312261598813E-4</v>
+      </c>
+      <c r="H42">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>3.2821970640980398</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -2969,8 +4043,23 @@
       <c r="E43">
         <v>3.1970000000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>19144.948853908121</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>1.6698921602746334E-4</v>
+      </c>
+      <c r="H43">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>3.2546413051643808</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -2986,8 +4075,23 @@
       <c r="E44">
         <v>2.8410000000000002</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>19235.000353691321</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>1.4769950339277191E-4</v>
+      </c>
+      <c r="H44">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="2"/>
+        <v>3.2699500601275249</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -3003,8 +4107,23 @@
       <c r="E45">
         <v>3.1269999999999998</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>19335.858033448501</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>1.6172026059514398E-4</v>
+      </c>
+      <c r="H45">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>3.2870958656862457</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -3020,8 +4139,23 @@
       <c r="E46">
         <v>8.7349999999999994</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>41782.578310748759</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>2.0905842466291462E-4</v>
+      </c>
+      <c r="H46">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>7.1030383128272891</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -3037,8 +4171,23 @@
       <c r="E47">
         <v>7.7919999999999998</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>41645.970161204037</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>1.8710093605308205E-4</v>
+      </c>
+      <c r="H47">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="2"/>
+        <v>7.0798149274046871</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -3054,8 +4203,23 @@
       <c r="E48">
         <v>6.7030000000000003</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>41614.745441308107</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>1.6107271422466498E-4</v>
+      </c>
+      <c r="H48">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>7.0745067250223785</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -3071,8 +4235,23 @@
       <c r="E49">
         <v>5.5110000000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>41985.538990072338</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>1.3125947963424025E-4</v>
+      </c>
+      <c r="H49">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="2"/>
+        <v>7.1375416283122979</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -3088,8 +4267,23 @@
       <c r="E50">
         <v>8.3710000000000004</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>53204</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>1.5733779415081573E-4</v>
+      </c>
+      <c r="H50">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="2"/>
+        <v>9.0446800000000014</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -3105,8 +4299,23 @@
       <c r="E51">
         <v>17.396000000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>53360</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>3.2601199400299853E-4</v>
+      </c>
+      <c r="H51">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="2"/>
+        <v>9.071200000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -3122,8 +4331,23 @@
       <c r="E52">
         <v>7.3490000000000002</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>53148</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>1.3827425302927673E-4</v>
+      </c>
+      <c r="H52">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="2"/>
+        <v>9.0351600000000012</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -3139,8 +4363,23 @@
       <c r="E53">
         <v>7.9119999999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>53244</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>1.4859890316279767E-4</v>
+      </c>
+      <c r="H53">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="2"/>
+        <v>9.0514800000000015</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -3156,8 +4395,23 @@
       <c r="E54">
         <v>16.015000000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>114695.56689437138</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>1.396305056388882E-4</v>
+      </c>
+      <c r="H54">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="2"/>
+        <v>19.498246372043138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -3173,8 +4427,23 @@
       <c r="E55">
         <v>25.341999999999999</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>115379.43066368197</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>2.1964053604900402E-4</v>
+      </c>
+      <c r="H55">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="2"/>
+        <v>19.614503212825937</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -3190,8 +4459,23 @@
       <c r="E56">
         <v>16.167999999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>114721.37307434538</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>1.4093276228068069E-4</v>
+      </c>
+      <c r="H56">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="2"/>
+        <v>19.502633422638716</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -3207,8 +4491,23 @@
       <c r="E57">
         <v>15.81</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>114708.46998435838</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>1.3782765999891593E-4</v>
+      </c>
+      <c r="H57">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="2"/>
+        <v>19.500439897340925</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -3224,8 +4523,23 @@
       <c r="E58">
         <v>32.811</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>245819.03443678311</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>1.334762382220566E-4</v>
+      </c>
+      <c r="H58">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="2"/>
+        <v>41.789235854253135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -3241,8 +4555,23 @@
       <c r="E59">
         <v>31.202999999999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>245961.69829651428</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>1.2686121544982926E-4</v>
+      </c>
+      <c r="H59">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="2"/>
+        <v>41.813488710407434</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -3258,8 +4587,23 @@
       <c r="E60">
         <v>33.789000000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>245022.87805828339</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>1.3790140850424032E-4</v>
+      </c>
+      <c r="H60">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="2"/>
+        <v>41.653889269908177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -3275,8 +4619,23 @@
       <c r="E61">
         <v>32.35</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>245377.23667761564</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>1.3183782015812026E-4</v>
+      </c>
+      <c r="H61">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="2"/>
+        <v>41.714130235194659</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -3292,8 +4651,23 @@
       <c r="E62">
         <v>101.03400000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>524208.96286925668</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>1.9273611699996621E-4</v>
+      </c>
+      <c r="H62">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="2"/>
+        <v>89.115523687773646</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -3309,8 +4683,23 @@
       <c r="E63">
         <v>96.513999999999996</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>522831.19458291196</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>1.8459877872626545E-4</v>
+      </c>
+      <c r="H63">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="2"/>
+        <v>88.881303079095034</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -3326,8 +4715,23 @@
       <c r="E64">
         <v>99.644999999999996</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>522600.74935352331</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>1.9067136838832435E-4</v>
+      </c>
+      <c r="H64">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="2"/>
+        <v>88.842127390098966</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -3343,8 +4747,23 @@
       <c r="E65">
         <v>88.391999999999996</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>522443.85047393956</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>1.6918947350957317E-4</v>
+      </c>
+      <c r="H65">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="2"/>
+        <v>88.815454580569735</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>69</v>
       </c>
@@ -3360,8 +4779,23 @@
       <c r="E66">
         <v>121.28400000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>666975</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>1.8184189812211853E-4</v>
+      </c>
+      <c r="H66">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="2"/>
+        <v>113.38575</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -3377,8 +4811,23 @@
       <c r="E67">
         <v>101.754</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67">
+        <f t="shared" ref="F67:F69" si="3">LOG10(B67)*C67</f>
+        <v>666070</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G69" si="4">E67/F67</f>
+        <v>1.5276772711576863E-4</v>
+      </c>
+      <c r="H67">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:I69" si="5">F67*H67</f>
+        <v>113.23190000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -3394,8 +4843,23 @@
       <c r="E68">
         <v>101.651</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68">
+        <f t="shared" si="3"/>
+        <v>667620</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="4"/>
+        <v>1.5225876995895868E-4</v>
+      </c>
+      <c r="H68">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="5"/>
+        <v>113.4954</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -3410,6 +4874,21 @@
       </c>
       <c r="E69">
         <v>117.96599999999999</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="3"/>
+        <v>667315</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="4"/>
+        <v>1.7677708428553231E-4</v>
+      </c>
+      <c r="H69">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="5"/>
+        <v>113.44355</v>
       </c>
     </row>
   </sheetData>

--- a/first assignment/result_kruskal_union_find.xlsx
+++ b/first assignment/result_kruskal_union_find.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Desktop\Advanced Algorithm\AdvancedAlgorithms-assignments\first assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davide/Sviluppo/Advanced Algorithm/first assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A187A9A-9D06-4E0F-8833-148EC5CB0E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E378AC8C-2E3F-5B4E-BDB5-8E2ED96679FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="760" windowWidth="29140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result_kruskal_union_find" sheetId="1" r:id="rId1"/>
@@ -2422,21 +2422,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2505,25 +2505,25 @@
         <v>1.7000000000000001E-4</v>
       </c>
       <c r="I2">
-        <f>F2*H2</f>
+        <f>F2*$H$2</f>
         <v>1.5300000000000001E-3</v>
       </c>
       <c r="J2">
         <v>10</v>
       </c>
       <c r="K2">
-        <f>AVERAGEIF(B:B,J2,I:I)</f>
+        <f t="shared" ref="K2:K18" si="0">AVERAGEIF(B:B,J2,I:I)</f>
         <v>1.8275000000000001E-3</v>
       </c>
       <c r="U2">
         <v>10</v>
       </c>
       <c r="V2">
-        <f>AVERAGEIF(B:B,U2,E:E)</f>
+        <f t="shared" ref="V2:V18" si="1">AVERAGEIF(B:B,U2,E:E)</f>
         <v>1.8000000000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2540,36 +2540,33 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="0">LOG10(B3)*C3</f>
+        <f t="shared" ref="F3:F66" si="2">LOG10(B3)*C3</f>
         <v>11</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="1">E3/F3</f>
+        <f t="shared" ref="G3:G66" si="3">E3/F3</f>
         <v>1.9090909090909091E-3</v>
       </c>
-      <c r="H3">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" si="2">F3*H3</f>
+        <f t="shared" ref="I3:I66" si="4">F3*$H$2</f>
         <v>1.8700000000000001E-3</v>
       </c>
       <c r="J3">
         <v>20</v>
       </c>
       <c r="K3">
-        <f>AVERAGEIF(B:B,J3,I:I)</f>
+        <f t="shared" si="0"/>
         <v>5.6399650312033596E-3</v>
       </c>
       <c r="U3">
         <v>20</v>
       </c>
       <c r="V3">
-        <f>AVERAGEIF(B:B,U3,E:E)</f>
+        <f t="shared" si="1"/>
         <v>1.4477500000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2586,36 +2583,33 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.9230769230769232E-3</v>
       </c>
-      <c r="H4">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.2100000000000002E-3</v>
       </c>
       <c r="J4">
         <v>40</v>
       </c>
       <c r="K4">
-        <f>AVERAGEIF(B:B,J4,I:I)</f>
+        <f t="shared" si="0"/>
         <v>1.4162210323339187E-2</v>
       </c>
       <c r="U4">
         <v>40</v>
       </c>
       <c r="V4">
-        <f>AVERAGEIF(B:B,U4,E:E)</f>
+        <f t="shared" si="1"/>
         <v>2.7499999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2632,36 +2626,33 @@
         <v>1.6E-2</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="H5">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.7000000000000001E-3</v>
       </c>
       <c r="J5">
         <v>80</v>
       </c>
       <c r="K5">
-        <f>AVERAGEIF(B:B,J5,I:I)</f>
+        <f t="shared" si="0"/>
         <v>3.4374562890041982E-2</v>
       </c>
       <c r="U5">
         <v>80</v>
       </c>
       <c r="V5">
-        <f>AVERAGEIF(B:B,U5,E:E)</f>
+        <f t="shared" si="1"/>
         <v>6.275E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2678,36 +2669,33 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>31.22471989593555</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.4444043234517061E-4</v>
       </c>
-      <c r="H6">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.3082023823090435E-3</v>
       </c>
       <c r="J6">
         <v>100</v>
       </c>
       <c r="K6">
-        <f>AVERAGEIF(B:B,J6,I:I)</f>
+        <f t="shared" si="0"/>
         <v>4.5390000000000007E-2</v>
       </c>
       <c r="U6">
         <v>100</v>
       </c>
       <c r="V6">
-        <f>AVERAGEIF(B:B,U6,E:E)</f>
+        <f t="shared" si="1"/>
         <v>6.7250000000000004E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2724,36 +2712,33 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>31.22471989593555</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.5228498563511033E-4</v>
       </c>
-      <c r="H7">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.3082023823090435E-3</v>
       </c>
       <c r="J7">
         <v>200</v>
       </c>
       <c r="K7">
-        <f>AVERAGEIF(B:B,J7,I:I)</f>
+        <f t="shared" si="0"/>
         <v>0.104834926602451</v>
       </c>
       <c r="U7">
         <v>200</v>
       </c>
       <c r="V7">
-        <f>AVERAGEIF(B:B,U7,E:E)</f>
+        <f t="shared" si="1"/>
         <v>0.14725000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2770,36 +2755,33 @@
         <v>5.7460000000000004</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>36.428839878591475</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.15773217097085801</v>
       </c>
-      <c r="H8">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.1929027793605511E-3</v>
       </c>
       <c r="J8">
         <v>400</v>
       </c>
       <c r="K8">
-        <f>AVERAGEIF(B:B,J8,I:I)</f>
+        <f t="shared" si="0"/>
         <v>0.23466678031791233</v>
       </c>
       <c r="U8">
         <v>400</v>
       </c>
       <c r="V8">
-        <f>AVERAGEIF(B:B,U8,E:E)</f>
+        <f t="shared" si="1"/>
         <v>0.24875000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2816,36 +2798,33 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>33.826779887263513</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.0256039908784978E-4</v>
       </c>
-      <c r="H9">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.7505525808347977E-3</v>
       </c>
       <c r="J9">
         <v>800</v>
       </c>
       <c r="K9">
-        <f>AVERAGEIF(B:B,J9,I:I)</f>
+        <f t="shared" si="0"/>
         <v>0.52387710360263129</v>
       </c>
       <c r="U9">
         <v>800</v>
       </c>
       <c r="V9">
-        <f>AVERAGEIF(B:B,U9,E:E)</f>
+        <f t="shared" si="1"/>
         <v>0.53500000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2862,36 +2841,33 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>89.715359514365886</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.7865908508115398E-4</v>
       </c>
-      <c r="H10">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.5251611117442202E-2</v>
       </c>
       <c r="J10">
         <v>1000</v>
       </c>
       <c r="K10">
-        <f>AVERAGEIF(B:B,J10,I:I)</f>
+        <f t="shared" si="0"/>
         <v>0.67383750000000009</v>
       </c>
       <c r="U10">
         <v>1000</v>
       </c>
       <c r="V10">
-        <f>AVERAGEIF(B:B,U10,E:E)</f>
+        <f t="shared" si="1"/>
         <v>0.77649999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2908,36 +2884,33 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>80.102999566398111</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.120981752908925E-4</v>
       </c>
-      <c r="H11">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.361750992628768E-2</v>
       </c>
       <c r="J11">
         <v>2000</v>
       </c>
       <c r="K11">
-        <f>AVERAGEIF(B:B,J11,I:I)</f>
+        <f t="shared" si="0"/>
         <v>1.4986181025815126</v>
       </c>
       <c r="U11">
         <v>2000</v>
       </c>
       <c r="V11">
-        <f>AVERAGEIF(B:B,U11,E:E)</f>
+        <f t="shared" si="1"/>
         <v>1.2362500000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2954,36 +2927,33 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>80.102999566398111</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.494213724188851E-4</v>
       </c>
-      <c r="H12">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.361750992628768E-2</v>
       </c>
       <c r="J12">
         <v>4000</v>
       </c>
       <c r="K12">
-        <f>AVERAGEIF(B:B,J12,I:I)</f>
+        <f t="shared" si="0"/>
         <v>3.273471073769048</v>
       </c>
       <c r="U12">
         <v>4000</v>
       </c>
       <c r="V12">
-        <f>AVERAGEIF(B:B,U12,E:E)</f>
+        <f t="shared" si="1"/>
         <v>3.1150000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -3000,36 +2970,33 @@
         <v>2.4E-2</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>83.307119549054036</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.8809062334543919E-4</v>
       </c>
-      <c r="H13">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.4162210323339187E-2</v>
       </c>
       <c r="J13">
         <v>8000</v>
       </c>
       <c r="K13">
-        <f>AVERAGEIF(B:B,J13,I:I)</f>
+        <f t="shared" si="0"/>
         <v>7.0987253983916636</v>
       </c>
       <c r="U13">
         <v>8000</v>
       </c>
       <c r="V13">
-        <f>AVERAGEIF(B:B,U13,E:E)</f>
+        <f t="shared" si="1"/>
         <v>7.1852499999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -3046,36 +3013,33 @@
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>205.5337185951299</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.8705752225609759E-4</v>
       </c>
-      <c r="H14">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.4940732161172085E-2</v>
       </c>
       <c r="J14">
         <v>10000</v>
       </c>
       <c r="K14">
-        <f>AVERAGEIF(B:B,J14,I:I)</f>
+        <f t="shared" si="0"/>
         <v>9.0506300000000017</v>
       </c>
       <c r="U14">
         <v>10000</v>
       </c>
       <c r="V14">
-        <f>AVERAGEIF(B:B,U14,E:E)</f>
+        <f t="shared" si="1"/>
         <v>10.257</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -3092,36 +3056,33 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>188.4059087122024</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.3884601235484238E-4</v>
       </c>
-      <c r="H15">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.2029004481074409E-2</v>
       </c>
       <c r="J15">
         <v>20000</v>
       </c>
       <c r="K15">
-        <f>AVERAGEIF(B:B,J15,I:I)</f>
+        <f t="shared" si="0"/>
         <v>19.528955726212182</v>
       </c>
       <c r="U15">
         <v>20000</v>
       </c>
       <c r="V15">
-        <f>AVERAGEIF(B:B,U15,E:E)</f>
+        <f t="shared" si="1"/>
         <v>18.333749999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -3138,36 +3099,33 @@
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>197.92135864716212</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.1935847938455982E-4</v>
       </c>
-      <c r="H16">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.3646630970017563E-2</v>
       </c>
       <c r="J16">
         <v>40000</v>
       </c>
       <c r="K16">
-        <f>AVERAGEIF(B:B,J16,I:I)</f>
+        <f t="shared" si="0"/>
         <v>41.742686017440853</v>
       </c>
       <c r="U16">
         <v>40000</v>
       </c>
       <c r="V16">
-        <f>AVERAGEIF(B:B,U16,E:E)</f>
+        <f t="shared" si="1"/>
         <v>32.538249999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -3184,36 +3142,33 @@
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>216.95225851708156</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.9499577666282286E-4</v>
       </c>
-      <c r="H17">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.6881883947903871E-2</v>
       </c>
       <c r="J17">
         <v>80000</v>
       </c>
       <c r="K17">
-        <f>AVERAGEIF(B:B,J17,I:I)</f>
+        <f t="shared" si="0"/>
         <v>88.913602184384345</v>
       </c>
       <c r="U17">
         <v>80000</v>
       </c>
       <c r="V17">
-        <f>AVERAGEIF(B:B,U17,E:E)</f>
+        <f t="shared" si="1"/>
         <v>96.396249999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -3230,36 +3185,33 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>272</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.6470588235294115E-4</v>
       </c>
-      <c r="H18">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.6240000000000003E-2</v>
       </c>
       <c r="J18">
         <v>100000</v>
       </c>
       <c r="K18">
-        <f>AVERAGEIF(B:B,J18,I:I)</f>
+        <f t="shared" si="0"/>
         <v>113.38915000000001</v>
       </c>
       <c r="U18">
         <v>100000</v>
       </c>
       <c r="V18">
-        <f>AVERAGEIF(B:B,U18,E:E)</f>
+        <f t="shared" si="1"/>
         <v>110.66375000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -3276,22 +3228,19 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>258</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.9767441860465114E-4</v>
       </c>
-      <c r="H19">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.3860000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -3308,22 +3257,19 @@
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>274</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.2481751824817515E-4</v>
       </c>
-      <c r="H20">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.6580000000000003E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -3340,22 +3286,19 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>264</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.1590909090909091E-4</v>
       </c>
-      <c r="H21">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.4880000000000003E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -3372,22 +3315,19 @@
         <v>0.13900000000000001</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>614.37500884228302</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.2624618189129967E-4</v>
       </c>
-      <c r="H22">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.10444375150318812</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -3404,22 +3344,19 @@
         <v>0.13900000000000001</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>618.97706883361093</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.2456405414489599E-4</v>
       </c>
-      <c r="H23">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.10522610170171387</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -3436,22 +3373,19 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>618.97706883361093</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.1503590329679649E-4</v>
       </c>
-      <c r="H24">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.10522610170171387</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -3468,22 +3402,19 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>614.37500884228302</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.8880976330496951E-4</v>
       </c>
-      <c r="H25">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.10444375150318812</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -3500,22 +3431,19 @@
         <v>0.27800000000000002</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1405.1123953170998</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.9784894142739533E-4</v>
       </c>
-      <c r="H26">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.23886910720390697</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -3532,22 +3460,19 @@
         <v>0.27100000000000002</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1347.8670755078847</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.0105840176998577E-4</v>
       </c>
-      <c r="H27">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.2291374028363404</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -3564,22 +3489,19 @@
         <v>0.2</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1399.9082753344437</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.4286650313015631E-4</v>
       </c>
-      <c r="H28">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.23798440680685545</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -3596,22 +3518,19 @@
         <v>0.246</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1368.6835554385084</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.7973475243602586E-4</v>
       </c>
-      <c r="H29">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.23267620442454645</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -3628,22 +3547,19 @@
         <v>0.58799999999999997</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3085.9846561724362</v>
       </c>
       <c r="G30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.9053886052994819E-4</v>
       </c>
-      <c r="H30">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.52461739154931419</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -3660,22 +3576,19 @@
         <v>0.48799999999999999</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3071.4692062374766</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5888161893629914E-4</v>
       </c>
-      <c r="H31">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.52214976506037103</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -3692,22 +3605,19 @@
         <v>0.56399999999999995</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3123.7248260033316</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.8055367595282493E-4</v>
       </c>
-      <c r="H32">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.53103322042056644</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -3724,22 +3634,19 @@
         <v>0.5</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3045.341396354549</v>
       </c>
       <c r="G33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.6418520452207071E-4</v>
       </c>
-      <c r="H33">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.51770803738027338</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -3756,22 +3663,19 @@
         <v>0.72299999999999998</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3900</v>
       </c>
       <c r="G34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.8538461538461539E-4</v>
       </c>
-      <c r="H34">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.66300000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -3788,22 +3692,19 @@
         <v>0.78700000000000003</v>
       </c>
       <c r="F35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3939</v>
       </c>
       <c r="G35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.997969027671998E-4</v>
       </c>
-      <c r="H35">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.66963000000000006</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -3820,22 +3721,19 @@
         <v>0.98299999999999998</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3984</v>
       </c>
       <c r="G36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.4673694779116467E-4</v>
       </c>
-      <c r="H36">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.6772800000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -3852,22 +3750,19 @@
         <v>0.61299999999999999</v>
       </c>
       <c r="F37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4032</v>
       </c>
       <c r="G37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5203373015873015E-4</v>
       </c>
-      <c r="H37">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.68544000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -3884,22 +3779,19 @@
         <v>1.446</v>
       </c>
       <c r="F38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8909.4799582970845</v>
       </c>
       <c r="G38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.6229903504675277E-4</v>
       </c>
-      <c r="H38">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.5146115929105044</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -3916,22 +3808,19 @@
         <v>1.2490000000000001</v>
       </c>
       <c r="F39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8760.933608492207</v>
       </c>
       <c r="G39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.4256471465430478E-4</v>
       </c>
-      <c r="H39">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.4893587134436752</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -3948,22 +3837,19 @@
         <v>1.141</v>
       </c>
       <c r="F40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8754.3315485008789</v>
       </c>
       <c r="G40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3033547949133691E-4</v>
       </c>
-      <c r="H40">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.4882363632451494</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -3980,22 +3866,19 @@
         <v>1.109</v>
       </c>
       <c r="F41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8836.8572983924787</v>
       </c>
       <c r="G41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2549710406682015E-4</v>
       </c>
-      <c r="H41">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.5022657407267215</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -4012,22 +3895,19 @@
         <v>3.2949999999999999</v>
       </c>
       <c r="F42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19307.04155351788</v>
       </c>
       <c r="G42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.7066312261598813E-4</v>
       </c>
-      <c r="H42">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.2821970640980398</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -4044,22 +3924,19 @@
         <v>3.1970000000000001</v>
       </c>
       <c r="F43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19144.948853908121</v>
       </c>
       <c r="G43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.6698921602746334E-4</v>
       </c>
-      <c r="H43">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.2546413051643808</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -4076,22 +3953,19 @@
         <v>2.8410000000000002</v>
       </c>
       <c r="F44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19235.000353691321</v>
       </c>
       <c r="G44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.4769950339277191E-4</v>
       </c>
-      <c r="H44">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.2699500601275249</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -4108,22 +3982,19 @@
         <v>3.1269999999999998</v>
       </c>
       <c r="F45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19335.858033448501</v>
       </c>
       <c r="G45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.6172026059514398E-4</v>
       </c>
-      <c r="H45">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.2870958656862457</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -4140,22 +4011,19 @@
         <v>8.7349999999999994</v>
       </c>
       <c r="F46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>41782.578310748759</v>
       </c>
       <c r="G46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.0905842466291462E-4</v>
       </c>
-      <c r="H46">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.1030383128272891</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -4172,22 +4040,19 @@
         <v>7.7919999999999998</v>
       </c>
       <c r="F47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>41645.970161204037</v>
       </c>
       <c r="G47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.8710093605308205E-4</v>
       </c>
-      <c r="H47">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.0798149274046871</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -4204,22 +4069,19 @@
         <v>6.7030000000000003</v>
       </c>
       <c r="F48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>41614.745441308107</v>
       </c>
       <c r="G48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.6107271422466498E-4</v>
       </c>
-      <c r="H48">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.0745067250223785</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -4236,22 +4098,19 @@
         <v>5.5110000000000001</v>
       </c>
       <c r="F49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>41985.538990072338</v>
       </c>
       <c r="G49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3125947963424025E-4</v>
       </c>
-      <c r="H49">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.1375416283122979</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -4268,22 +4127,19 @@
         <v>8.3710000000000004</v>
       </c>
       <c r="F50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>53204</v>
       </c>
       <c r="G50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5733779415081573E-4</v>
       </c>
-      <c r="H50">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.0446800000000014</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -4300,22 +4156,19 @@
         <v>17.396000000000001</v>
       </c>
       <c r="F51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>53360</v>
       </c>
       <c r="G51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.2601199400299853E-4</v>
       </c>
-      <c r="H51">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.071200000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -4332,22 +4185,19 @@
         <v>7.3490000000000002</v>
       </c>
       <c r="F52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>53148</v>
       </c>
       <c r="G52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3827425302927673E-4</v>
       </c>
-      <c r="H52">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.0351600000000012</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -4364,22 +4214,19 @@
         <v>7.9119999999999999</v>
       </c>
       <c r="F53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>53244</v>
       </c>
       <c r="G53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.4859890316279767E-4</v>
       </c>
-      <c r="H53">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.0514800000000015</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -4396,22 +4243,19 @@
         <v>16.015000000000001</v>
       </c>
       <c r="F54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>114695.56689437138</v>
       </c>
       <c r="G54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.396305056388882E-4</v>
       </c>
-      <c r="H54">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19.498246372043138</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -4428,22 +4272,19 @@
         <v>25.341999999999999</v>
       </c>
       <c r="F55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>115379.43066368197</v>
       </c>
       <c r="G55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.1964053604900402E-4</v>
       </c>
-      <c r="H55">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19.614503212825937</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -4460,22 +4301,19 @@
         <v>16.167999999999999</v>
       </c>
       <c r="F56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>114721.37307434538</v>
       </c>
       <c r="G56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.4093276228068069E-4</v>
       </c>
-      <c r="H56">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19.502633422638716</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -4492,22 +4330,19 @@
         <v>15.81</v>
       </c>
       <c r="F57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>114708.46998435838</v>
       </c>
       <c r="G57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3782765999891593E-4</v>
       </c>
-      <c r="H57">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19.500439897340925</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -4524,22 +4359,19 @@
         <v>32.811</v>
       </c>
       <c r="F58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>245819.03443678311</v>
       </c>
       <c r="G58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.334762382220566E-4</v>
       </c>
-      <c r="H58">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>41.789235854253135</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -4556,22 +4388,19 @@
         <v>31.202999999999999</v>
       </c>
       <c r="F59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>245961.69829651428</v>
       </c>
       <c r="G59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2686121544982926E-4</v>
       </c>
-      <c r="H59">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>41.813488710407434</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -4588,22 +4417,19 @@
         <v>33.789000000000001</v>
       </c>
       <c r="F60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>245022.87805828339</v>
       </c>
       <c r="G60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3790140850424032E-4</v>
       </c>
-      <c r="H60">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>41.653889269908177</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -4620,22 +4446,19 @@
         <v>32.35</v>
       </c>
       <c r="F61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>245377.23667761564</v>
       </c>
       <c r="G61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3183782015812026E-4</v>
       </c>
-      <c r="H61">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>41.714130235194659</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -4652,22 +4475,19 @@
         <v>101.03400000000001</v>
       </c>
       <c r="F62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>524208.96286925668</v>
       </c>
       <c r="G62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.9273611699996621E-4</v>
       </c>
-      <c r="H62">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>89.115523687773646</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -4684,22 +4504,19 @@
         <v>96.513999999999996</v>
       </c>
       <c r="F63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>522831.19458291196</v>
       </c>
       <c r="G63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.8459877872626545E-4</v>
       </c>
-      <c r="H63">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>88.881303079095034</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -4716,22 +4533,19 @@
         <v>99.644999999999996</v>
       </c>
       <c r="F64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>522600.74935352331</v>
       </c>
       <c r="G64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.9067136838832435E-4</v>
       </c>
-      <c r="H64">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>88.842127390098966</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -4748,22 +4562,19 @@
         <v>88.391999999999996</v>
       </c>
       <c r="F65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>522443.85047393956</v>
       </c>
       <c r="G65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.6918947350957317E-4</v>
       </c>
-      <c r="H65">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>88.815454580569735</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>69</v>
       </c>
@@ -4780,22 +4591,19 @@
         <v>121.28400000000001</v>
       </c>
       <c r="F66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>666975</v>
       </c>
       <c r="G66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.8184189812211853E-4</v>
       </c>
-      <c r="H66">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>113.38575</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -4812,22 +4620,19 @@
         <v>101.754</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F69" si="3">LOG10(B67)*C67</f>
+        <f t="shared" ref="F67:F69" si="5">LOG10(B67)*C67</f>
         <v>666070</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G69" si="4">E67/F67</f>
+        <f t="shared" ref="G67:G69" si="6">E67/F67</f>
         <v>1.5276772711576863E-4</v>
       </c>
-      <c r="H67">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I67">
-        <f t="shared" ref="I67:I69" si="5">F67*H67</f>
+        <f t="shared" ref="I67:I69" si="7">F67*$H$2</f>
         <v>113.23190000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -4844,22 +4649,19 @@
         <v>101.651</v>
       </c>
       <c r="F68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>667620</v>
       </c>
       <c r="G68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.5225876995895868E-4</v>
       </c>
-      <c r="H68">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>113.4954</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -4876,18 +4678,15 @@
         <v>117.96599999999999</v>
       </c>
       <c r="F69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>667315</v>
       </c>
       <c r="G69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.7677708428553231E-4</v>
       </c>
-      <c r="H69">
-        <v>1.7000000000000001E-4</v>
-      </c>
       <c r="I69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>113.44355</v>
       </c>
     </row>

--- a/first assignment/result_kruskal_union_find.xlsx
+++ b/first assignment/result_kruskal_union_find.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davide/Sviluppo/Advanced Algorithm/first assignment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Desktop\Advanced Algorithm\AdvancedAlgorithms-assignments\first assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E378AC8C-2E3F-5B4E-BDB5-8E2ED96679FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57F4EFCB-4297-4288-A41D-6ABC61B62FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="760" windowWidth="29140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="result_kruskal_union_find" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -253,41 +244,41 @@
     <t>input_random_68_100000</t>
   </si>
   <si>
+    <t>m*log(n)</t>
+  </si>
+  <si>
+    <t>constant</t>
+  </si>
+  <si>
+    <t>choosen const</t>
+  </si>
+  <si>
+    <t>m*log(n)*const</t>
+  </si>
+  <si>
     <t>Vertices</t>
   </si>
   <si>
+    <t>Media I</t>
+  </si>
+  <si>
     <t>Time (ms)</t>
-  </si>
-  <si>
-    <t>m*log(n)</t>
-  </si>
-  <si>
-    <t>constant</t>
-  </si>
-  <si>
-    <t>choosen const</t>
-  </si>
-  <si>
-    <t>m*log(n)*const</t>
-  </si>
-  <si>
-    <t>Media I</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -325,28 +316,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -354,7 +345,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -362,14 +353,14 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -377,14 +368,14 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -392,7 +383,7 @@
     </font>
     <font>
       <i/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -400,14 +391,14 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -987,55 +978,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1.8000000000000002E-2</c:v>
+                  <c:v>5.4999999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4477500000000001</c:v>
+                  <c:v>0.11250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7499999999999997E-2</c:v>
+                  <c:v>0.16500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.275E-2</c:v>
+                  <c:v>0.21249999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.7250000000000004E-2</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14725000000000002</c:v>
+                  <c:v>0.35250000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.24875000000000003</c:v>
+                  <c:v>0.59250000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.53500000000000003</c:v>
+                  <c:v>1.1750000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.77649999999999997</c:v>
+                  <c:v>1.345</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2362500000000001</c:v>
+                  <c:v>2.2050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.1150000000000002</c:v>
+                  <c:v>4.5724999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.1852499999999999</c:v>
+                  <c:v>10.715</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.257</c:v>
+                  <c:v>20.9575</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.333749999999998</c:v>
+                  <c:v>40.482500000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32.538249999999998</c:v>
+                  <c:v>88.472500000000011</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>96.396249999999995</c:v>
+                  <c:v>194.03000000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>110.66375000000001</c:v>
+                  <c:v>273.95500000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1043,7 +1034,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-461D-3A44-A5DC-93030F8C1B30}"/>
+              <c16:uniqueId val="{00000000-0773-4B80-82E1-8A37E65BB8BE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1051,7 +1042,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>0,00017*m*log(n)</c:v>
+            <c:v>0,00041*m*log(n)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1144,55 +1135,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1.8275000000000001E-3</c:v>
+                  <c:v>4.4075E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6399650312033596E-3</c:v>
+                  <c:v>1.3602268604666925E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4162210323339187E-2</c:v>
+                  <c:v>3.4155919015112154E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4374562890041982E-2</c:v>
+                  <c:v>8.2903357558336541E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5390000000000007E-2</c:v>
+                  <c:v>0.10947</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.104834926602451</c:v>
+                  <c:v>0.25283717592355825</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23466678031791233</c:v>
+                  <c:v>0.56596105841378841</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.52387710360263129</c:v>
+                  <c:v>1.2634683086886986</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.67383750000000009</c:v>
+                  <c:v>1.6251375000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4986181025815126</c:v>
+                  <c:v>3.6143142474024716</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.273471073769048</c:v>
+                  <c:v>7.8948420014429974</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.0987253983916636</c:v>
+                  <c:v>17.120455372591657</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.0506300000000017</c:v>
+                  <c:v>21.82799</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19.528955726212182</c:v>
+                  <c:v>47.099246163217607</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41.742686017440853</c:v>
+                  <c:v>100.67353686559264</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>88.913602184384345</c:v>
+                  <c:v>214.43868762116222</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>113.38915000000001</c:v>
+                  <c:v>273.46794999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1200,7 +1191,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7C1D-49A6-89A2-3B5E06E3818C}"/>
+              <c16:uniqueId val="{00000001-0773-4B80-82E1-8A37E65BB8BE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1310,7 +1301,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2086,27 +2077,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>591417</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>709729</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>536864</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28286</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafico 2">
+        <xdr:cNvPr id="2" name="Grafico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2717A3D8-1B9C-134D-B652-7FFB78EA9E4A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E14A57FD-8CC2-4771-89A5-A4B6205E46B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2121,6 +2114,258 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="result_kruskal_union_find"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="J2">
+            <v>10</v>
+          </cell>
+          <cell r="K2">
+            <v>1.8275000000000001E-3</v>
+          </cell>
+          <cell r="U2">
+            <v>10</v>
+          </cell>
+          <cell r="V2">
+            <v>1.8000000000000002E-2</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="J3">
+            <v>20</v>
+          </cell>
+          <cell r="K3">
+            <v>5.6399650312033596E-3</v>
+          </cell>
+          <cell r="U3">
+            <v>20</v>
+          </cell>
+          <cell r="V3">
+            <v>1.924666666666667</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>40</v>
+          </cell>
+          <cell r="K4">
+            <v>1.4162210323339187E-2</v>
+          </cell>
+          <cell r="U4">
+            <v>40</v>
+          </cell>
+          <cell r="V4">
+            <v>2.7499999999999997E-2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>80</v>
+          </cell>
+          <cell r="K5">
+            <v>3.4374562890041982E-2</v>
+          </cell>
+          <cell r="U5">
+            <v>80</v>
+          </cell>
+          <cell r="V5">
+            <v>6.275E-2</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>100</v>
+          </cell>
+          <cell r="K6">
+            <v>4.5390000000000007E-2</v>
+          </cell>
+          <cell r="U6">
+            <v>100</v>
+          </cell>
+          <cell r="V6">
+            <v>6.7250000000000004E-2</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="J7">
+            <v>200</v>
+          </cell>
+          <cell r="K7">
+            <v>0.104834926602451</v>
+          </cell>
+          <cell r="U7">
+            <v>200</v>
+          </cell>
+          <cell r="V7">
+            <v>0.14725000000000002</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="J8">
+            <v>400</v>
+          </cell>
+          <cell r="K8">
+            <v>0.23466678031791233</v>
+          </cell>
+          <cell r="U8">
+            <v>400</v>
+          </cell>
+          <cell r="V8">
+            <v>0.24875000000000003</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="J9">
+            <v>800</v>
+          </cell>
+          <cell r="K9">
+            <v>0.52387710360263129</v>
+          </cell>
+          <cell r="U9">
+            <v>800</v>
+          </cell>
+          <cell r="V9">
+            <v>0.53500000000000003</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="J10">
+            <v>1000</v>
+          </cell>
+          <cell r="K10">
+            <v>0.67383750000000009</v>
+          </cell>
+          <cell r="U10">
+            <v>1000</v>
+          </cell>
+          <cell r="V10">
+            <v>0.77649999999999997</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="J11">
+            <v>2000</v>
+          </cell>
+          <cell r="K11">
+            <v>1.4986181025815126</v>
+          </cell>
+          <cell r="U11">
+            <v>2000</v>
+          </cell>
+          <cell r="V11">
+            <v>1.2362500000000001</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="J12">
+            <v>4000</v>
+          </cell>
+          <cell r="K12">
+            <v>3.273471073769048</v>
+          </cell>
+          <cell r="U12">
+            <v>4000</v>
+          </cell>
+          <cell r="V12">
+            <v>3.1150000000000002</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="J13">
+            <v>8000</v>
+          </cell>
+          <cell r="K13">
+            <v>7.0987253983916636</v>
+          </cell>
+          <cell r="U13">
+            <v>8000</v>
+          </cell>
+          <cell r="V13">
+            <v>7.1852499999999999</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="J14">
+            <v>10000</v>
+          </cell>
+          <cell r="K14">
+            <v>9.0506300000000017</v>
+          </cell>
+          <cell r="U14">
+            <v>10000</v>
+          </cell>
+          <cell r="V14">
+            <v>10.257</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="J15">
+            <v>20000</v>
+          </cell>
+          <cell r="K15">
+            <v>19.528955726212182</v>
+          </cell>
+          <cell r="U15">
+            <v>20000</v>
+          </cell>
+          <cell r="V15">
+            <v>18.333749999999998</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="J16">
+            <v>40000</v>
+          </cell>
+          <cell r="K16">
+            <v>41.742686017440853</v>
+          </cell>
+          <cell r="U16">
+            <v>40000</v>
+          </cell>
+          <cell r="V16">
+            <v>32.538249999999998</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="J17">
+            <v>80000</v>
+          </cell>
+          <cell r="K17">
+            <v>88.913602184384345</v>
+          </cell>
+          <cell r="U17">
+            <v>80000</v>
+          </cell>
+          <cell r="V17">
+            <v>96.396249999999995</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="J18">
+            <v>100000</v>
+          </cell>
+          <cell r="K18">
+            <v>113.38915000000001</v>
+          </cell>
+          <cell r="U18">
+            <v>100000</v>
+          </cell>
+          <cell r="V18">
+            <v>110.66375000000001</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2419,24 +2664,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2453,31 +2698,31 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" t="s">
         <v>75</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>76</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>77</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>78</v>
       </c>
-      <c r="J1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="U1" t="s">
+        <v>77</v>
+      </c>
+      <c r="V1" t="s">
         <v>79</v>
       </c>
-      <c r="U1" t="s">
-        <v>73</v>
-      </c>
-      <c r="V1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2491,7 +2736,7 @@
         <v>29316</v>
       </c>
       <c r="E2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F2">
         <f>LOG10(B2)*C2</f>
@@ -2499,31 +2744,31 @@
       </c>
       <c r="G2">
         <f>E2/F2</f>
-        <v>1.1111111111111111E-3</v>
+        <v>2.2222222222222222E-3</v>
       </c>
       <c r="H2">
-        <v>1.7000000000000001E-4</v>
+        <v>4.0999999999999999E-4</v>
       </c>
       <c r="I2">
         <f>F2*$H$2</f>
-        <v>1.5300000000000001E-3</v>
+        <v>3.6899999999999997E-3</v>
       </c>
       <c r="J2">
         <v>10</v>
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K18" si="0">AVERAGEIF(B:B,J2,I:I)</f>
-        <v>1.8275000000000001E-3</v>
+        <v>4.4075E-3</v>
       </c>
       <c r="U2">
         <v>10</v>
       </c>
       <c r="V2">
         <f t="shared" ref="V2:V18" si="1">AVERAGEIF(B:B,U2,E:E)</f>
-        <v>1.8000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+        <v>5.4999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2537,7 +2782,7 @@
         <v>16940</v>
       </c>
       <c r="E3">
-        <v>2.1000000000000001E-2</v>
+        <v>0.16</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" si="2">LOG10(B3)*C3</f>
@@ -2545,28 +2790,28 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" si="3">E3/F3</f>
-        <v>1.9090909090909091E-3</v>
+        <v>1.4545454545454545E-2</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I66" si="4">F3*$H$2</f>
-        <v>1.8700000000000001E-3</v>
+        <v>4.5100000000000001E-3</v>
       </c>
       <c r="J3">
         <v>20</v>
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
-        <v>5.6399650312033596E-3</v>
+        <v>1.3602268604666925E-2</v>
       </c>
       <c r="U3">
         <v>20</v>
       </c>
       <c r="V3">
         <f t="shared" si="1"/>
-        <v>1.4477500000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0.11250000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2580,7 +2825,7 @@
         <v>-44448</v>
       </c>
       <c r="E4">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="F4">
         <f t="shared" si="2"/>
@@ -2588,28 +2833,28 @@
       </c>
       <c r="G4">
         <f t="shared" si="3"/>
-        <v>1.9230769230769232E-3</v>
+        <v>1.5384615384615385E-3</v>
       </c>
       <c r="I4">
         <f t="shared" si="4"/>
-        <v>2.2100000000000002E-3</v>
+        <v>5.3299999999999997E-3</v>
       </c>
       <c r="J4">
         <v>40</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>1.4162210323339187E-2</v>
+        <v>3.4155919015112154E-2</v>
       </c>
       <c r="U4">
         <v>40</v>
       </c>
       <c r="V4">
         <f t="shared" si="1"/>
-        <v>2.7499999999999997E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2623,7 +2868,7 @@
         <v>25217</v>
       </c>
       <c r="E5">
-        <v>1.6E-2</v>
+        <v>0.02</v>
       </c>
       <c r="F5">
         <f t="shared" si="2"/>
@@ -2631,28 +2876,28 @@
       </c>
       <c r="G5">
         <f t="shared" si="3"/>
-        <v>1.6000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="I5">
         <f t="shared" si="4"/>
-        <v>1.7000000000000001E-3</v>
+        <v>4.0999999999999995E-3</v>
       </c>
       <c r="J5">
         <v>80</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>3.4374562890041982E-2</v>
+        <v>8.2903357558336541E-2</v>
       </c>
       <c r="U5">
         <v>80</v>
       </c>
       <c r="V5">
         <f t="shared" si="1"/>
-        <v>6.275E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0.21249999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2666,7 +2911,7 @@
         <v>-32021</v>
       </c>
       <c r="E6">
-        <v>1.7000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
@@ -2674,28 +2919,28 @@
       </c>
       <c r="G6">
         <f t="shared" si="3"/>
-        <v>5.4444043234517061E-4</v>
+        <v>4.4836270899014053E-3</v>
       </c>
       <c r="I6">
         <f t="shared" si="4"/>
-        <v>5.3082023823090435E-3</v>
+        <v>1.2802135157333576E-2</v>
       </c>
       <c r="J6">
         <v>100</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>4.5390000000000007E-2</v>
+        <v>0.10947</v>
       </c>
       <c r="U6">
         <v>100</v>
       </c>
       <c r="V6">
         <f t="shared" si="1"/>
-        <v>6.7250000000000004E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2709,7 +2954,7 @@
         <v>25130</v>
       </c>
       <c r="E7">
-        <v>1.0999999999999999E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
@@ -2717,28 +2962,28 @@
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
-        <v>3.5228498563511033E-4</v>
+        <v>4.4836270899014053E-3</v>
       </c>
       <c r="I7">
         <f t="shared" si="4"/>
-        <v>5.3082023823090435E-3</v>
+        <v>1.2802135157333576E-2</v>
       </c>
       <c r="J7">
         <v>200</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>0.104834926602451</v>
+        <v>0.25283717592355825</v>
       </c>
       <c r="U7">
         <v>200</v>
       </c>
       <c r="V7">
         <f t="shared" si="1"/>
-        <v>0.14725000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0.35250000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2752,7 +2997,7 @@
         <v>-41693</v>
       </c>
       <c r="E8">
-        <v>5.7460000000000004</v>
+        <v>0.03</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
@@ -2760,28 +3005,28 @@
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
-        <v>0.15773217097085801</v>
+        <v>8.2352334304311512E-4</v>
       </c>
       <c r="I8">
         <f t="shared" si="4"/>
-        <v>6.1929027793605511E-3</v>
+        <v>1.4935824350222504E-2</v>
       </c>
       <c r="J8">
         <v>400</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>0.23466678031791233</v>
+        <v>0.56596105841378841</v>
       </c>
       <c r="U8">
         <v>400</v>
       </c>
       <c r="V8">
         <f t="shared" si="1"/>
-        <v>0.24875000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0.59250000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2795,7 +3040,7 @@
         <v>-37205</v>
       </c>
       <c r="E9">
-        <v>1.7000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
@@ -2803,28 +3048,28 @@
       </c>
       <c r="G9">
         <f t="shared" si="3"/>
-        <v>5.0256039908784978E-4</v>
+        <v>4.1387326983705281E-3</v>
       </c>
       <c r="I9">
         <f t="shared" si="4"/>
-        <v>5.7505525808347977E-3</v>
+        <v>1.386897975377804E-2</v>
       </c>
       <c r="J9">
         <v>800</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>0.52387710360263129</v>
+        <v>1.2634683086886986</v>
       </c>
       <c r="U9">
         <v>800</v>
       </c>
       <c r="V9">
         <f t="shared" si="1"/>
-        <v>0.53500000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+        <v>1.1750000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2838,7 +3083,7 @@
         <v>-114203</v>
       </c>
       <c r="E10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.17</v>
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
@@ -2846,28 +3091,28 @@
       </c>
       <c r="G10">
         <f t="shared" si="3"/>
-        <v>2.7865908508115398E-4</v>
+        <v>1.8948817785518471E-3</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>1.5251611117442202E-2</v>
+        <v>3.6783297400890015E-2</v>
       </c>
       <c r="J10">
         <v>1000</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>0.67383750000000009</v>
+        <v>1.6251375000000001</v>
       </c>
       <c r="U10">
         <v>1000</v>
       </c>
       <c r="V10">
         <f t="shared" si="1"/>
-        <v>0.77649999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+        <v>1.345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2881,7 +3126,7 @@
         <v>-31929</v>
       </c>
       <c r="E11">
-        <v>2.5000000000000001E-2</v>
+        <v>0.16</v>
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
@@ -2889,28 +3134,28 @@
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
-        <v>3.120981752908925E-4</v>
+        <v>1.9974283218617116E-3</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>1.361750992628768E-2</v>
+        <v>3.2842229822223228E-2</v>
       </c>
       <c r="J11">
         <v>2000</v>
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>1.4986181025815126</v>
+        <v>3.6143142474024716</v>
       </c>
       <c r="U11">
         <v>2000</v>
       </c>
       <c r="V11">
         <f t="shared" si="1"/>
-        <v>1.2362500000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+        <v>2.2050000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2924,7 +3169,7 @@
         <v>-79570</v>
       </c>
       <c r="E12">
-        <v>3.5999999999999997E-2</v>
+        <v>0.17</v>
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
@@ -2932,28 +3177,28 @@
       </c>
       <c r="G12">
         <f t="shared" si="3"/>
-        <v>4.494213724188851E-4</v>
+        <v>2.1222675919780687E-3</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>1.361750992628768E-2</v>
+        <v>3.2842229822223228E-2</v>
       </c>
       <c r="J12">
         <v>4000</v>
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>3.273471073769048</v>
+        <v>7.8948420014429974</v>
       </c>
       <c r="U12">
         <v>4000</v>
       </c>
       <c r="V12">
         <f t="shared" si="1"/>
-        <v>3.1150000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+        <v>4.5724999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2967,7 +3212,7 @@
         <v>-79741</v>
       </c>
       <c r="E13">
-        <v>2.4E-2</v>
+        <v>0.16</v>
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
@@ -2975,28 +3220,28 @@
       </c>
       <c r="G13">
         <f t="shared" si="3"/>
-        <v>2.8809062334543919E-4</v>
+        <v>1.9206041556362613E-3</v>
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
-        <v>1.4162210323339187E-2</v>
+        <v>3.4155919015112154E-2</v>
       </c>
       <c r="J13">
         <v>8000</v>
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>7.0987253983916636</v>
+        <v>17.120455372591657</v>
       </c>
       <c r="U13">
         <v>8000</v>
       </c>
       <c r="V13">
         <f t="shared" si="1"/>
-        <v>7.1852499999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+        <v>10.715</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -3010,7 +3255,7 @@
         <v>-139926</v>
       </c>
       <c r="E14">
-        <v>5.8999999999999997E-2</v>
+        <v>0.22</v>
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
@@ -3018,28 +3263,28 @@
       </c>
       <c r="G14">
         <f t="shared" si="3"/>
-        <v>2.8705752225609759E-4</v>
+        <v>1.0703839812939231E-3</v>
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
-        <v>3.4940732161172085E-2</v>
+        <v>8.4268824624003258E-2</v>
       </c>
       <c r="J14">
         <v>10000</v>
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>9.0506300000000017</v>
+        <v>21.82799</v>
       </c>
       <c r="U14">
         <v>10000</v>
       </c>
       <c r="V14">
         <f t="shared" si="1"/>
-        <v>10.257</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+        <v>20.9575</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -3053,7 +3298,7 @@
         <v>-198094</v>
       </c>
       <c r="E15">
-        <v>4.4999999999999998E-2</v>
+        <v>0.21</v>
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
@@ -3061,28 +3306,28 @@
       </c>
       <c r="G15">
         <f t="shared" si="3"/>
-        <v>2.3884601235484238E-4</v>
+        <v>1.1146147243225977E-3</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>3.2029004481074409E-2</v>
+        <v>7.7246422572002982E-2</v>
       </c>
       <c r="J15">
         <v>20000</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>19.528955726212182</v>
+        <v>47.099246163217607</v>
       </c>
       <c r="U15">
         <v>20000</v>
       </c>
       <c r="V15">
         <f t="shared" si="1"/>
-        <v>18.333749999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+        <v>40.482500000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -3096,7 +3341,7 @@
         <v>-110571</v>
       </c>
       <c r="E16">
-        <v>8.3000000000000004E-2</v>
+        <v>0.21</v>
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
@@ -3104,28 +3349,28 @@
       </c>
       <c r="G16">
         <f t="shared" si="3"/>
-        <v>4.1935847938455982E-4</v>
+        <v>1.0610274779609343E-3</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
-        <v>3.3646630970017563E-2</v>
+        <v>8.1147757045336472E-2</v>
       </c>
       <c r="J16">
         <v>40000</v>
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>41.742686017440853</v>
+        <v>100.67353686559264</v>
       </c>
       <c r="U16">
         <v>40000</v>
       </c>
       <c r="V16">
         <f t="shared" si="1"/>
-        <v>32.538249999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+        <v>88.472500000000011</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -3139,7 +3384,7 @@
         <v>-233320</v>
       </c>
       <c r="E17">
-        <v>6.4000000000000001E-2</v>
+        <v>0.21</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
@@ -3147,28 +3392,28 @@
       </c>
       <c r="G17">
         <f t="shared" si="3"/>
-        <v>2.9499577666282286E-4</v>
+        <v>9.679548921748875E-4</v>
       </c>
       <c r="I17">
         <f t="shared" si="4"/>
-        <v>3.6881883947903871E-2</v>
+        <v>8.8950425992003437E-2</v>
       </c>
       <c r="J17">
         <v>80000</v>
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>88.913602184384345</v>
+        <v>214.43868762116222</v>
       </c>
       <c r="U17">
         <v>80000</v>
       </c>
       <c r="V17">
         <f t="shared" si="1"/>
-        <v>96.396249999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+        <v>194.03000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -3182,7 +3427,7 @@
         <v>-141960</v>
       </c>
       <c r="E18">
-        <v>7.1999999999999995E-2</v>
+        <v>0.24</v>
       </c>
       <c r="F18">
         <f t="shared" si="2"/>
@@ -3190,28 +3435,28 @@
       </c>
       <c r="G18">
         <f t="shared" si="3"/>
-        <v>2.6470588235294115E-4</v>
+        <v>8.8235294117647051E-4</v>
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
-        <v>4.6240000000000003E-2</v>
+        <v>0.11151999999999999</v>
       </c>
       <c r="J18">
         <v>100000</v>
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>113.38915000000001</v>
+        <v>273.46794999999997</v>
       </c>
       <c r="U18">
         <v>100000</v>
       </c>
       <c r="V18">
         <f t="shared" si="1"/>
-        <v>110.66375000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+        <v>273.95500000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -3225,7 +3470,7 @@
         <v>-271743</v>
       </c>
       <c r="E19">
-        <v>5.0999999999999997E-2</v>
+        <v>0.24</v>
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
@@ -3233,14 +3478,14 @@
       </c>
       <c r="G19">
         <f t="shared" si="3"/>
-        <v>1.9767441860465114E-4</v>
+        <v>9.3023255813953483E-4</v>
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
-        <v>4.3860000000000003E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0.10578</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -3254,7 +3499,7 @@
         <v>-288906</v>
       </c>
       <c r="E20">
-        <v>8.8999999999999996E-2</v>
+        <v>0.24</v>
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
@@ -3262,14 +3507,14 @@
       </c>
       <c r="G20">
         <f t="shared" si="3"/>
-        <v>3.2481751824817515E-4</v>
+        <v>8.7591240875912405E-4</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
-        <v>4.6580000000000003E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0.11234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -3283,7 +3528,7 @@
         <v>-229506</v>
       </c>
       <c r="E21">
-        <v>5.7000000000000002E-2</v>
+        <v>0.24</v>
       </c>
       <c r="F21">
         <f t="shared" si="2"/>
@@ -3291,14 +3536,14 @@
       </c>
       <c r="G21">
         <f t="shared" si="3"/>
-        <v>2.1590909090909091E-4</v>
+        <v>9.0909090909090909E-4</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
-        <v>4.4880000000000003E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0.10824</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -3312,7 +3557,7 @@
         <v>-510185</v>
       </c>
       <c r="E22">
-        <v>0.13900000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="F22">
         <f t="shared" si="2"/>
@@ -3320,14 +3565,14 @@
       </c>
       <c r="G22">
         <f t="shared" si="3"/>
-        <v>2.2624618189129967E-4</v>
+        <v>6.1851474186110696E-4</v>
       </c>
       <c r="I22">
         <f t="shared" si="4"/>
-        <v>0.10444375150318812</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0.25189375362533606</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -3341,7 +3586,7 @@
         <v>-515136</v>
       </c>
       <c r="E23">
-        <v>0.13900000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="F23">
         <f t="shared" si="2"/>
@@ -3349,14 +3594,14 @@
       </c>
       <c r="G23">
         <f t="shared" si="3"/>
-        <v>2.2456405414489599E-4</v>
+        <v>6.1391611924503935E-4</v>
       </c>
       <c r="I23">
         <f t="shared" si="4"/>
-        <v>0.10522610170171387</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0.25378059822178045</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -3370,7 +3615,7 @@
         <v>-444357</v>
       </c>
       <c r="E24">
-        <v>0.19500000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="F24">
         <f t="shared" si="2"/>
@@ -3378,14 +3623,14 @@
       </c>
       <c r="G24">
         <f t="shared" si="3"/>
-        <v>3.1503590329679649E-4</v>
+        <v>6.1391611924503935E-4</v>
       </c>
       <c r="I24">
         <f t="shared" si="4"/>
-        <v>0.10522610170171387</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0.25378059822178045</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -3399,7 +3644,7 @@
         <v>-393278</v>
       </c>
       <c r="E25">
-        <v>0.11600000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="F25">
         <f t="shared" si="2"/>
@@ -3407,14 +3652,14 @@
       </c>
       <c r="G25">
         <f t="shared" si="3"/>
-        <v>1.8880976330496951E-4</v>
+        <v>4.3947100079604973E-4</v>
       </c>
       <c r="I25">
         <f t="shared" si="4"/>
-        <v>0.10444375150318812</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0.25189375362533606</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -3428,7 +3673,7 @@
         <v>-1119906</v>
       </c>
       <c r="E26">
-        <v>0.27800000000000002</v>
+        <v>0.59</v>
       </c>
       <c r="F26">
         <f t="shared" si="2"/>
@@ -3436,14 +3681,14 @@
       </c>
       <c r="G26">
         <f t="shared" si="3"/>
-        <v>1.9784894142739533E-4</v>
+        <v>4.1989523540346483E-4</v>
       </c>
       <c r="I26">
         <f t="shared" si="4"/>
-        <v>0.23886910720390697</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0.57609608208001084</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -3457,7 +3702,7 @@
         <v>-788168</v>
       </c>
       <c r="E27">
-        <v>0.27100000000000002</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F27">
         <f t="shared" si="2"/>
@@ -3465,14 +3710,14 @@
       </c>
       <c r="G27">
         <f t="shared" si="3"/>
-        <v>2.0105840176998577E-4</v>
+        <v>4.3030949456306908E-4</v>
       </c>
       <c r="I27">
         <f t="shared" si="4"/>
-        <v>0.2291374028363404</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0.55262550095823271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -3486,7 +3731,7 @@
         <v>-895704</v>
       </c>
       <c r="E28">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="F28">
         <f t="shared" si="2"/>
@@ -3494,14 +3739,14 @@
       </c>
       <c r="G28">
         <f t="shared" si="3"/>
-        <v>1.4286650313015631E-4</v>
+        <v>4.2859950939046887E-4</v>
       </c>
       <c r="I28">
         <f t="shared" si="4"/>
-        <v>0.23798440680685545</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0.57396239288712192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -3515,7 +3760,7 @@
         <v>-733645</v>
       </c>
       <c r="E29">
-        <v>0.246</v>
+        <v>0.6</v>
       </c>
       <c r="F29">
         <f t="shared" si="2"/>
@@ -3523,14 +3768,14 @@
       </c>
       <c r="G29">
         <f t="shared" si="3"/>
-        <v>1.7973475243602586E-4</v>
+        <v>4.3837744496591675E-4</v>
       </c>
       <c r="I29">
         <f t="shared" si="4"/>
-        <v>0.23267620442454645</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0.56116025772978839</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -3544,7 +3789,7 @@
         <v>-1541291</v>
       </c>
       <c r="E30">
-        <v>0.58799999999999997</v>
+        <v>1.6</v>
       </c>
       <c r="F30">
         <f t="shared" si="2"/>
@@ -3552,14 +3797,14 @@
       </c>
       <c r="G30">
         <f t="shared" si="3"/>
-        <v>1.9053886052994819E-4</v>
+        <v>5.1847308987741007E-4</v>
       </c>
       <c r="I30">
         <f t="shared" si="4"/>
-        <v>0.52461739154931419</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+        <v>1.2652537090306988</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -3573,7 +3818,7 @@
         <v>-1578294</v>
       </c>
       <c r="E31">
-        <v>0.48799999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="F31">
         <f t="shared" si="2"/>
@@ -3581,14 +3826,14 @@
       </c>
       <c r="G31">
         <f t="shared" si="3"/>
-        <v>1.5888161893629914E-4</v>
+        <v>3.4185594238343058E-4</v>
       </c>
       <c r="I31">
         <f t="shared" si="4"/>
-        <v>0.52214976506037103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+        <v>1.2593023745573653</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -3602,7 +3847,7 @@
         <v>-1664316</v>
       </c>
       <c r="E32">
-        <v>0.56399999999999995</v>
+        <v>1.03</v>
       </c>
       <c r="F32">
         <f t="shared" si="2"/>
@@ -3610,14 +3855,14 @@
       </c>
       <c r="G32">
         <f t="shared" si="3"/>
-        <v>1.8055367595282493E-4</v>
+        <v>3.2973455005569092E-4</v>
       </c>
       <c r="I32">
         <f t="shared" si="4"/>
-        <v>0.53103322042056644</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.2807271786613659</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -3631,7 +3876,7 @@
         <v>-1652119</v>
       </c>
       <c r="E33">
-        <v>0.5</v>
+        <v>1.02</v>
       </c>
       <c r="F33">
         <f t="shared" si="2"/>
@@ -3639,14 +3884,14 @@
       </c>
       <c r="G33">
         <f t="shared" si="3"/>
-        <v>1.6418520452207071E-4</v>
+        <v>3.3493781722502425E-4</v>
       </c>
       <c r="I33">
         <f t="shared" si="4"/>
-        <v>0.51770803738027338</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.2485899725053651</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -3660,7 +3905,7 @@
         <v>-2089013</v>
       </c>
       <c r="E34">
-        <v>0.72299999999999998</v>
+        <v>1.25</v>
       </c>
       <c r="F34">
         <f t="shared" si="2"/>
@@ -3668,14 +3913,14 @@
       </c>
       <c r="G34">
         <f t="shared" si="3"/>
-        <v>1.8538461538461539E-4</v>
+        <v>3.2051282051282051E-4</v>
       </c>
       <c r="I34">
         <f t="shared" si="4"/>
-        <v>0.66300000000000003</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.599</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -3689,7 +3934,7 @@
         <v>-1934208</v>
       </c>
       <c r="E35">
-        <v>0.78700000000000003</v>
+        <v>1.52</v>
       </c>
       <c r="F35">
         <f t="shared" si="2"/>
@@ -3697,14 +3942,14 @@
       </c>
       <c r="G35">
         <f t="shared" si="3"/>
-        <v>1.997969027671998E-4</v>
+        <v>3.858847423203859E-4</v>
       </c>
       <c r="I35">
         <f t="shared" si="4"/>
-        <v>0.66963000000000006</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.6149899999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -3718,7 +3963,7 @@
         <v>-2229428</v>
       </c>
       <c r="E36">
-        <v>0.98299999999999998</v>
+        <v>1.28</v>
       </c>
       <c r="F36">
         <f t="shared" si="2"/>
@@ -3726,14 +3971,14 @@
       </c>
       <c r="G36">
         <f t="shared" si="3"/>
-        <v>2.4673694779116467E-4</v>
+        <v>3.21285140562249E-4</v>
       </c>
       <c r="I36">
         <f t="shared" si="4"/>
-        <v>0.6772800000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.63344</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -3747,7 +3992,7 @@
         <v>-2356163</v>
       </c>
       <c r="E37">
-        <v>0.61299999999999999</v>
+        <v>1.33</v>
       </c>
       <c r="F37">
         <f t="shared" si="2"/>
@@ -3755,14 +4000,14 @@
       </c>
       <c r="G37">
         <f t="shared" si="3"/>
-        <v>1.5203373015873015E-4</v>
+        <v>3.2986111111111112E-4</v>
       </c>
       <c r="I37">
         <f t="shared" si="4"/>
-        <v>0.68544000000000005</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.6531199999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -3776,7 +4021,7 @@
         <v>-4811598</v>
       </c>
       <c r="E38">
-        <v>1.446</v>
+        <v>2.38</v>
       </c>
       <c r="F38">
         <f t="shared" si="2"/>
@@ -3784,14 +4029,14 @@
       </c>
       <c r="G38">
         <f t="shared" si="3"/>
-        <v>1.6229903504675277E-4</v>
+        <v>2.6713119184735239E-4</v>
       </c>
       <c r="I38">
         <f t="shared" si="4"/>
-        <v>1.5146115929105044</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3.6528867829018048</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -3805,7 +4050,7 @@
         <v>-4739387</v>
       </c>
       <c r="E39">
-        <v>1.2490000000000001</v>
+        <v>2.06</v>
       </c>
       <c r="F39">
         <f t="shared" si="2"/>
@@ -3813,14 +4058,14 @@
       </c>
       <c r="G39">
         <f t="shared" si="3"/>
-        <v>1.4256471465430478E-4</v>
+        <v>2.3513475755633932E-4</v>
       </c>
       <c r="I39">
         <f t="shared" si="4"/>
-        <v>1.4893587134436752</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3.5919827794818047</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -3834,7 +4079,7 @@
         <v>-4717250</v>
       </c>
       <c r="E40">
-        <v>1.141</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F40">
         <f t="shared" si="2"/>
@@ -3842,14 +4087,14 @@
       </c>
       <c r="G40">
         <f t="shared" si="3"/>
-        <v>1.3033547949133691E-4</v>
+        <v>2.5130416729267417E-4</v>
       </c>
       <c r="I40">
         <f t="shared" si="4"/>
-        <v>1.4882363632451494</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3.5892759348853605</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -3863,7 +4108,7 @@
         <v>-4537267</v>
       </c>
       <c r="E41">
-        <v>1.109</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="F41">
         <f t="shared" si="2"/>
@@ -3871,14 +4116,14 @@
       </c>
       <c r="G41">
         <f t="shared" si="3"/>
-        <v>1.2549710406682015E-4</v>
+        <v>2.4669403684911446E-4</v>
       </c>
       <c r="I41">
         <f t="shared" si="4"/>
-        <v>1.5022657407267215</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3.6231114923409162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -3892,7 +4137,7 @@
         <v>-8722212</v>
       </c>
       <c r="E42">
-        <v>3.2949999999999999</v>
+        <v>4.53</v>
       </c>
       <c r="F42">
         <f t="shared" si="2"/>
@@ -3900,14 +4145,14 @@
       </c>
       <c r="G42">
         <f t="shared" si="3"/>
-        <v>1.7066312261598813E-4</v>
+        <v>2.3462942198798978E-4</v>
       </c>
       <c r="I42">
         <f t="shared" si="4"/>
-        <v>3.2821970640980398</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7.9158870369423306</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -3921,7 +4166,7 @@
         <v>-9314968</v>
       </c>
       <c r="E43">
-        <v>3.1970000000000001</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="F43">
         <f t="shared" si="2"/>
@@ -3929,14 +4174,14 @@
       </c>
       <c r="G43">
         <f t="shared" si="3"/>
-        <v>1.6698921602746334E-4</v>
+        <v>2.4706255608692579E-4</v>
       </c>
       <c r="I43">
         <f t="shared" si="4"/>
-        <v>3.2546413051643808</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7.8494290301023293</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -3950,7 +4195,7 @@
         <v>-9845767</v>
       </c>
       <c r="E44">
-        <v>2.8410000000000002</v>
+        <v>4.72</v>
       </c>
       <c r="F44">
         <f t="shared" si="2"/>
@@ -3958,14 +4203,14 @@
       </c>
       <c r="G44">
         <f t="shared" si="3"/>
-        <v>1.4769950339277191E-4</v>
+        <v>2.4538601056454885E-4</v>
       </c>
       <c r="I44">
         <f t="shared" si="4"/>
-        <v>3.2699500601275249</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7.8863501450134414</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -3979,7 +4224,7 @@
         <v>-8681447</v>
       </c>
       <c r="E45">
-        <v>3.1269999999999998</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="F45">
         <f t="shared" si="2"/>
@@ -3987,14 +4232,14 @@
       </c>
       <c r="G45">
         <f t="shared" si="3"/>
-        <v>1.6172026059514398E-4</v>
+        <v>2.2290192618006733E-4</v>
       </c>
       <c r="I45">
         <f t="shared" si="4"/>
-        <v>3.2870958656862457</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7.9277017937138856</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -4008,7 +4253,7 @@
         <v>-17844628</v>
       </c>
       <c r="E46">
-        <v>8.7349999999999994</v>
+        <v>9.77</v>
       </c>
       <c r="F46">
         <f t="shared" si="2"/>
@@ -4016,14 +4261,14 @@
       </c>
       <c r="G46">
         <f t="shared" si="3"/>
-        <v>2.0905842466291462E-4</v>
+        <v>2.3382951447700924E-4</v>
       </c>
       <c r="I46">
         <f t="shared" si="4"/>
-        <v>7.1030383128272891</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+        <v>17.130857107406992</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -4037,7 +4282,7 @@
         <v>-18798446</v>
       </c>
       <c r="E47">
-        <v>7.7919999999999998</v>
+        <v>12.89</v>
       </c>
       <c r="F47">
         <f t="shared" si="2"/>
@@ -4045,14 +4290,14 @@
       </c>
       <c r="G47">
         <f t="shared" si="3"/>
-        <v>1.8710093605308205E-4</v>
+        <v>3.0951374046768839E-4</v>
       </c>
       <c r="I47">
         <f t="shared" si="4"/>
-        <v>7.0798149274046871</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+        <v>17.074847766093654</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -4066,7 +4311,7 @@
         <v>-18741474</v>
       </c>
       <c r="E48">
-        <v>6.7030000000000003</v>
+        <v>9.85</v>
       </c>
       <c r="F48">
         <f t="shared" si="2"/>
@@ -4074,14 +4319,14 @@
       </c>
       <c r="G48">
         <f t="shared" si="3"/>
-        <v>1.6107271422466498E-4</v>
+        <v>2.3669494780142471E-4</v>
       </c>
       <c r="I48">
         <f t="shared" si="4"/>
-        <v>7.0745067250223785</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+        <v>17.062045630936325</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -4095,7 +4340,7 @@
         <v>-18178610</v>
       </c>
       <c r="E49">
-        <v>5.5110000000000001</v>
+        <v>10.35</v>
       </c>
       <c r="F49">
         <f t="shared" si="2"/>
@@ -4103,14 +4348,14 @@
       </c>
       <c r="G49">
         <f t="shared" si="3"/>
-        <v>1.3125947963424025E-4</v>
+        <v>2.4651344841487686E-4</v>
       </c>
       <c r="I49">
         <f t="shared" si="4"/>
-        <v>7.1375416283122979</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+        <v>17.214070985929659</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -4124,7 +4369,7 @@
         <v>-22079522</v>
       </c>
       <c r="E50">
-        <v>8.3710000000000004</v>
+        <v>30.09</v>
       </c>
       <c r="F50">
         <f t="shared" si="2"/>
@@ -4132,14 +4377,14 @@
       </c>
       <c r="G50">
         <f t="shared" si="3"/>
-        <v>1.5733779415081573E-4</v>
+        <v>5.6555898052777981E-4</v>
       </c>
       <c r="I50">
         <f t="shared" si="4"/>
-        <v>9.0446800000000014</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+        <v>21.813639999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -4153,7 +4398,7 @@
         <v>-22338561</v>
       </c>
       <c r="E51">
-        <v>17.396000000000001</v>
+        <v>26.66</v>
       </c>
       <c r="F51">
         <f t="shared" si="2"/>
@@ -4161,14 +4406,14 @@
       </c>
       <c r="G51">
         <f t="shared" si="3"/>
-        <v>3.2601199400299853E-4</v>
+        <v>4.9962518740629682E-4</v>
       </c>
       <c r="I51">
         <f t="shared" si="4"/>
-        <v>9.071200000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+        <v>21.877600000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -4182,7 +4427,7 @@
         <v>-22581384</v>
       </c>
       <c r="E52">
-        <v>7.3490000000000002</v>
+        <v>12.14</v>
       </c>
       <c r="F52">
         <f t="shared" si="2"/>
@@ -4190,14 +4435,14 @@
       </c>
       <c r="G52">
         <f t="shared" si="3"/>
-        <v>1.3827425302927673E-4</v>
+        <v>2.2841875517423045E-4</v>
       </c>
       <c r="I52">
         <f t="shared" si="4"/>
-        <v>9.0351600000000012</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+        <v>21.790679999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -4211,7 +4456,7 @@
         <v>-22606313</v>
       </c>
       <c r="E53">
-        <v>7.9119999999999999</v>
+        <v>14.94</v>
       </c>
       <c r="F53">
         <f t="shared" si="2"/>
@@ -4219,14 +4464,14 @@
       </c>
       <c r="G53">
         <f t="shared" si="3"/>
-        <v>1.4859890316279767E-4</v>
+        <v>2.8059499661933735E-4</v>
       </c>
       <c r="I53">
         <f t="shared" si="4"/>
-        <v>9.0514800000000015</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+        <v>21.83004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -4240,7 +4485,7 @@
         <v>-45962292</v>
       </c>
       <c r="E54">
-        <v>16.015000000000001</v>
+        <v>28.25</v>
       </c>
       <c r="F54">
         <f t="shared" si="2"/>
@@ -4248,14 +4493,14 @@
       </c>
       <c r="G54">
         <f t="shared" si="3"/>
-        <v>1.396305056388882E-4</v>
+        <v>2.4630420132991517E-4</v>
       </c>
       <c r="I54">
         <f t="shared" si="4"/>
-        <v>19.498246372043138</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+        <v>47.025182426692268</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -4269,7 +4514,7 @@
         <v>-45195405</v>
       </c>
       <c r="E55">
-        <v>25.341999999999999</v>
+        <v>42.52</v>
       </c>
       <c r="F55">
         <f t="shared" si="2"/>
@@ -4277,14 +4522,14 @@
       </c>
       <c r="G55">
         <f t="shared" si="3"/>
-        <v>2.1964053604900402E-4</v>
+        <v>3.6852322598072968E-4</v>
       </c>
       <c r="I55">
         <f t="shared" si="4"/>
-        <v>19.614503212825937</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+        <v>47.305566572109605</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -4298,7 +4543,7 @@
         <v>-47854708</v>
       </c>
       <c r="E56">
-        <v>16.167999999999999</v>
+        <v>26.71</v>
       </c>
       <c r="F56">
         <f t="shared" si="2"/>
@@ -4306,14 +4551,14 @@
       </c>
       <c r="G56">
         <f t="shared" si="3"/>
-        <v>1.4093276228068069E-4</v>
+        <v>2.3282496786967971E-4</v>
       </c>
       <c r="I56">
         <f t="shared" si="4"/>
-        <v>19.502633422638716</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+        <v>47.035762960481605</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -4327,7 +4572,7 @@
         <v>-46418161</v>
       </c>
       <c r="E57">
-        <v>15.81</v>
+        <v>64.45</v>
       </c>
       <c r="F57">
         <f t="shared" si="2"/>
@@ -4335,14 +4580,14 @@
       </c>
       <c r="G57">
         <f t="shared" si="3"/>
-        <v>1.3782765999891593E-4</v>
+        <v>5.6185911998293055E-4</v>
       </c>
       <c r="I57">
         <f t="shared" si="4"/>
-        <v>19.500439897340925</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+        <v>47.030472693586937</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -4356,7 +4601,7 @@
         <v>-92003321</v>
       </c>
       <c r="E58">
-        <v>32.811</v>
+        <v>148.74</v>
       </c>
       <c r="F58">
         <f t="shared" si="2"/>
@@ -4364,14 +4609,14 @@
       </c>
       <c r="G58">
         <f t="shared" si="3"/>
-        <v>1.334762382220566E-4</v>
+        <v>6.0507926223366253E-4</v>
       </c>
       <c r="I58">
         <f t="shared" si="4"/>
-        <v>41.789235854253135</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+        <v>100.78580411908108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -4385,7 +4630,7 @@
         <v>-94397064</v>
       </c>
       <c r="E59">
-        <v>31.202999999999999</v>
+        <v>68.040000000000006</v>
       </c>
       <c r="F59">
         <f t="shared" si="2"/>
@@ -4393,14 +4638,14 @@
       </c>
       <c r="G59">
         <f t="shared" si="3"/>
-        <v>1.2686121544982926E-4</v>
+        <v>2.7662843634286392E-4</v>
       </c>
       <c r="I59">
         <f t="shared" si="4"/>
-        <v>41.813488710407434</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+        <v>100.84429630157085</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -4414,7 +4659,7 @@
         <v>-88771991</v>
       </c>
       <c r="E60">
-        <v>33.789000000000001</v>
+        <v>71.319999999999993</v>
       </c>
       <c r="F60">
         <f t="shared" si="2"/>
@@ -4422,14 +4667,14 @@
       </c>
       <c r="G60">
         <f t="shared" si="3"/>
-        <v>1.3790140850424032E-4</v>
+        <v>2.9107486029543396E-4</v>
       </c>
       <c r="I60">
         <f t="shared" si="4"/>
-        <v>41.653889269908177</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+        <v>100.45938000389619</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -4443,7 +4688,7 @@
         <v>-93017025</v>
       </c>
       <c r="E61">
-        <v>32.35</v>
+        <v>65.790000000000006</v>
       </c>
       <c r="F61">
         <f t="shared" si="2"/>
@@ -4451,14 +4696,14 @@
       </c>
       <c r="G61">
         <f t="shared" si="3"/>
-        <v>1.3183782015812026E-4</v>
+        <v>2.6811778016082636E-4</v>
       </c>
       <c r="I61">
         <f t="shared" si="4"/>
-        <v>41.714130235194659</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+        <v>100.60466703782241</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -4472,7 +4717,7 @@
         <v>-186834082</v>
       </c>
       <c r="E62">
-        <v>101.03400000000001</v>
+        <v>160.21</v>
       </c>
       <c r="F62">
         <f t="shared" si="2"/>
@@ -4480,14 +4725,14 @@
       </c>
       <c r="G62">
         <f t="shared" si="3"/>
-        <v>1.9273611699996621E-4</v>
+        <v>3.0562239745595137E-4</v>
       </c>
       <c r="I62">
         <f t="shared" si="4"/>
-        <v>89.115523687773646</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+        <v>214.92567477639523</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -4501,7 +4746,7 @@
         <v>-185997521</v>
       </c>
       <c r="E63">
-        <v>96.513999999999996</v>
+        <v>230.11</v>
       </c>
       <c r="F63">
         <f t="shared" si="2"/>
@@ -4509,14 +4754,14 @@
       </c>
       <c r="G63">
         <f t="shared" si="3"/>
-        <v>1.8459877872626545E-4</v>
+        <v>4.4012293524981811E-4</v>
       </c>
       <c r="I63">
         <f t="shared" si="4"/>
-        <v>88.881303079095034</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+        <v>214.3607897789939</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -4530,7 +4775,7 @@
         <v>-182065015</v>
       </c>
       <c r="E64">
-        <v>99.644999999999996</v>
+        <v>167.07</v>
       </c>
       <c r="F64">
         <f t="shared" si="2"/>
@@ -4538,14 +4783,14 @@
       </c>
       <c r="G64">
         <f t="shared" si="3"/>
-        <v>1.9067136838832435E-4</v>
+        <v>3.1968955307980679E-4</v>
       </c>
       <c r="I64">
         <f t="shared" si="4"/>
-        <v>88.842127390098966</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+        <v>214.26630723494455</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -4559,7 +4804,7 @@
         <v>-180793224</v>
       </c>
       <c r="E65">
-        <v>88.391999999999996</v>
+        <v>218.73</v>
       </c>
       <c r="F65">
         <f t="shared" si="2"/>
@@ -4567,14 +4812,14 @@
       </c>
       <c r="G65">
         <f t="shared" si="3"/>
-        <v>1.6918947350957317E-4</v>
+        <v>4.186670008682792E-4</v>
       </c>
       <c r="I65">
         <f t="shared" si="4"/>
-        <v>88.815454580569735</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+        <v>214.20197869431522</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>69</v>
       </c>
@@ -4588,7 +4833,7 @@
         <v>-230698391</v>
       </c>
       <c r="E66">
-        <v>121.28400000000001</v>
+        <v>393.2</v>
       </c>
       <c r="F66">
         <f t="shared" si="2"/>
@@ -4596,14 +4841,14 @@
       </c>
       <c r="G66">
         <f t="shared" si="3"/>
-        <v>1.8184189812211853E-4</v>
+        <v>5.8952734360358337E-4</v>
       </c>
       <c r="I66">
         <f t="shared" si="4"/>
-        <v>113.38575</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+        <v>273.45974999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -4617,7 +4862,7 @@
         <v>-230168572</v>
       </c>
       <c r="E67">
-        <v>101.754</v>
+        <v>196.52</v>
       </c>
       <c r="F67">
         <f t="shared" ref="F67:F69" si="5">LOG10(B67)*C67</f>
@@ -4625,14 +4870,14 @@
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G69" si="6">E67/F67</f>
-        <v>1.5276772711576863E-4</v>
+        <v>2.9504406443767173E-4</v>
       </c>
       <c r="I67">
         <f t="shared" ref="I67:I69" si="7">F67*$H$2</f>
-        <v>113.23190000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+        <v>273.08870000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -4646,7 +4891,7 @@
         <v>-231393935</v>
       </c>
       <c r="E68">
-        <v>101.651</v>
+        <v>217.88</v>
       </c>
       <c r="F68">
         <f t="shared" si="5"/>
@@ -4654,14 +4899,14 @@
       </c>
       <c r="G68">
         <f t="shared" si="6"/>
-        <v>1.5225876995895868E-4</v>
+        <v>3.2635331475989337E-4</v>
       </c>
       <c r="I68">
         <f t="shared" si="7"/>
-        <v>113.4954</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+        <v>273.7242</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -4675,7 +4920,7 @@
         <v>-231011693</v>
       </c>
       <c r="E69">
-        <v>117.96599999999999</v>
+        <v>288.22000000000003</v>
       </c>
       <c r="F69">
         <f t="shared" si="5"/>
@@ -4683,18 +4928,15 @@
       </c>
       <c r="G69">
         <f t="shared" si="6"/>
-        <v>1.7677708428553231E-4</v>
+        <v>4.3190996755655128E-4</v>
       </c>
       <c r="I69">
         <f t="shared" si="7"/>
-        <v>113.44355</v>
+        <v>273.59915000000001</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E69">
-    <sortCondition ref="A5:A69"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/first assignment/result_kruskal_union_find.xlsx
+++ b/first assignment/result_kruskal_union_find.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,17 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Desktop\Advanced Algorithm\AdvancedAlgorithms-assignments\first assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57F4EFCB-4297-4288-A41D-6ABC61B62FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428E2D2B-0C01-428F-9B5F-E8FD74318759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result_kruskal_union_find" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -268,7 +277,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2116,258 +2125,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="result_kruskal_union_find"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="J2">
-            <v>10</v>
-          </cell>
-          <cell r="K2">
-            <v>1.8275000000000001E-3</v>
-          </cell>
-          <cell r="U2">
-            <v>10</v>
-          </cell>
-          <cell r="V2">
-            <v>1.8000000000000002E-2</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="J3">
-            <v>20</v>
-          </cell>
-          <cell r="K3">
-            <v>5.6399650312033596E-3</v>
-          </cell>
-          <cell r="U3">
-            <v>20</v>
-          </cell>
-          <cell r="V3">
-            <v>1.924666666666667</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="J4">
-            <v>40</v>
-          </cell>
-          <cell r="K4">
-            <v>1.4162210323339187E-2</v>
-          </cell>
-          <cell r="U4">
-            <v>40</v>
-          </cell>
-          <cell r="V4">
-            <v>2.7499999999999997E-2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>80</v>
-          </cell>
-          <cell r="K5">
-            <v>3.4374562890041982E-2</v>
-          </cell>
-          <cell r="U5">
-            <v>80</v>
-          </cell>
-          <cell r="V5">
-            <v>6.275E-2</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>100</v>
-          </cell>
-          <cell r="K6">
-            <v>4.5390000000000007E-2</v>
-          </cell>
-          <cell r="U6">
-            <v>100</v>
-          </cell>
-          <cell r="V6">
-            <v>6.7250000000000004E-2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="J7">
-            <v>200</v>
-          </cell>
-          <cell r="K7">
-            <v>0.104834926602451</v>
-          </cell>
-          <cell r="U7">
-            <v>200</v>
-          </cell>
-          <cell r="V7">
-            <v>0.14725000000000002</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="J8">
-            <v>400</v>
-          </cell>
-          <cell r="K8">
-            <v>0.23466678031791233</v>
-          </cell>
-          <cell r="U8">
-            <v>400</v>
-          </cell>
-          <cell r="V8">
-            <v>0.24875000000000003</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="J9">
-            <v>800</v>
-          </cell>
-          <cell r="K9">
-            <v>0.52387710360263129</v>
-          </cell>
-          <cell r="U9">
-            <v>800</v>
-          </cell>
-          <cell r="V9">
-            <v>0.53500000000000003</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="J10">
-            <v>1000</v>
-          </cell>
-          <cell r="K10">
-            <v>0.67383750000000009</v>
-          </cell>
-          <cell r="U10">
-            <v>1000</v>
-          </cell>
-          <cell r="V10">
-            <v>0.77649999999999997</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="J11">
-            <v>2000</v>
-          </cell>
-          <cell r="K11">
-            <v>1.4986181025815126</v>
-          </cell>
-          <cell r="U11">
-            <v>2000</v>
-          </cell>
-          <cell r="V11">
-            <v>1.2362500000000001</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="J12">
-            <v>4000</v>
-          </cell>
-          <cell r="K12">
-            <v>3.273471073769048</v>
-          </cell>
-          <cell r="U12">
-            <v>4000</v>
-          </cell>
-          <cell r="V12">
-            <v>3.1150000000000002</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="J13">
-            <v>8000</v>
-          </cell>
-          <cell r="K13">
-            <v>7.0987253983916636</v>
-          </cell>
-          <cell r="U13">
-            <v>8000</v>
-          </cell>
-          <cell r="V13">
-            <v>7.1852499999999999</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="J14">
-            <v>10000</v>
-          </cell>
-          <cell r="K14">
-            <v>9.0506300000000017</v>
-          </cell>
-          <cell r="U14">
-            <v>10000</v>
-          </cell>
-          <cell r="V14">
-            <v>10.257</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="J15">
-            <v>20000</v>
-          </cell>
-          <cell r="K15">
-            <v>19.528955726212182</v>
-          </cell>
-          <cell r="U15">
-            <v>20000</v>
-          </cell>
-          <cell r="V15">
-            <v>18.333749999999998</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="J16">
-            <v>40000</v>
-          </cell>
-          <cell r="K16">
-            <v>41.742686017440853</v>
-          </cell>
-          <cell r="U16">
-            <v>40000</v>
-          </cell>
-          <cell r="V16">
-            <v>32.538249999999998</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="J17">
-            <v>80000</v>
-          </cell>
-          <cell r="K17">
-            <v>88.913602184384345</v>
-          </cell>
-          <cell r="U17">
-            <v>80000</v>
-          </cell>
-          <cell r="V17">
-            <v>96.396249999999995</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="J18">
-            <v>100000</v>
-          </cell>
-          <cell r="K18">
-            <v>113.38915000000001</v>
-          </cell>
-          <cell r="U18">
-            <v>100000</v>
-          </cell>
-          <cell r="V18">
-            <v>110.66375000000001</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
@@ -2664,11 +2421,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
